--- a/02-09-2023.xlsx
+++ b/02-09-2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="72">
   <si>
     <t>Stocks</t>
   </si>
@@ -126,6 +126,12 @@
     <t>EFID</t>
   </si>
   <si>
+    <t>ESRS</t>
+  </si>
+  <si>
+    <t>Stand Still</t>
+  </si>
+  <si>
     <t>ORHD</t>
   </si>
   <si>
@@ -150,10 +156,13 @@
     <t>ETEL</t>
   </si>
   <si>
+    <t>JUFO</t>
+  </si>
+  <si>
     <t>CICH</t>
   </si>
   <si>
-    <t>Stand Still</t>
+    <t>OCDI</t>
   </si>
   <si>
     <t>MFPC</t>
@@ -163,6 +172,9 @@
   </si>
   <si>
     <t>RMDA</t>
+  </si>
+  <si>
+    <t>HRHO</t>
   </si>
   <si>
     <t>ATLC</t>
@@ -253,7 +265,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="102">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +299,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE95538"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCBE982"/>
       </patternFill>
     </fill>
@@ -297,11 +314,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE95538"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDC776"/>
       </patternFill>
     </fill>
@@ -312,11 +324,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2FAAE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFEEDA1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA7D96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDB382B"/>
       </patternFill>
     </fill>
@@ -387,6 +409,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFEDC88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFED07E"/>
       </patternFill>
     </fill>
@@ -422,11 +449,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFCAA5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF98E52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF46D43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBFE47A"/>
       </patternFill>
     </fill>
@@ -467,11 +504,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCAA5F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFB9D59"/>
       </patternFill>
     </fill>
@@ -572,6 +604,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFEE491"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCA85E"/>
       </patternFill>
     </fill>
@@ -582,6 +619,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDC372"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFA9B58"/>
       </patternFill>
     </fill>
@@ -642,6 +684,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF3DA65A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE8F6E3"/>
       </patternFill>
     </fill>
@@ -677,6 +724,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDE402E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF75C465"/>
       </patternFill>
     </fill>
@@ -692,12 +744,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF3FAA59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF36B42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0D8044"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA362A"/>
       </patternFill>
     </fill>
     <fill>
@@ -788,111 +850,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W36"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1729,138 +1801,138 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>9.14</v>
+        <v>25.49</v>
       </c>
       <c r="C8" s="29">
-        <v>46.43</v>
+        <v>82.14</v>
       </c>
       <c r="D8">
-        <v>8.8624999999999989</v>
+        <v>23.274999999999999</v>
       </c>
       <c r="E8">
-        <v>9.1649999999999991</v>
+        <v>23.984999999999999</v>
       </c>
       <c r="F8">
-        <v>9.4924999999999997</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>7.65</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>25.7</v>
       </c>
       <c r="I8">
-        <v>9.08</v>
+        <v>24.14</v>
       </c>
       <c r="J8" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="30">
-        <v>0.1762</v>
+        <v>0.2175</v>
       </c>
       <c r="L8" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N8" s="31">
-        <v>0.11169999999999999</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.31</v>
-      </c>
-      <c r="P8" s="32">
-        <v>79.760000000000005</v>
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="P8" s="33">
+        <v>86.9</v>
       </c>
       <c r="Q8">
-        <v>6.9</v>
+        <v>24.212499999999999</v>
       </c>
       <c r="R8">
-        <v>7.6750000000000007</v>
+        <v>24.574999999999999</v>
       </c>
       <c r="S8">
-        <v>9.0425000000000004</v>
+        <v>25</v>
       </c>
       <c r="T8" t="s">
         <v>30</v>
       </c>
       <c r="U8">
-        <v>6.78</v>
+        <v>24.27</v>
       </c>
       <c r="V8">
-        <v>7.09</v>
+        <v>25.62</v>
       </c>
       <c r="W8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>11.19</v>
-      </c>
-      <c r="C9" s="33">
-        <v>55.36</v>
+        <v>9.14</v>
+      </c>
+      <c r="C9" s="34">
+        <v>46.43</v>
       </c>
       <c r="D9">
-        <v>10.565</v>
+        <v>8.8624999999999989</v>
       </c>
       <c r="E9">
-        <v>10.955</v>
+        <v>9.1649999999999991</v>
       </c>
       <c r="F9">
-        <v>11.3475</v>
+        <v>9.4924999999999997</v>
       </c>
       <c r="G9">
-        <v>10.050000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="H9">
-        <v>11.77</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>9.08</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="34">
-        <v>-1.17E-2</v>
+        <v>29</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0.1762</v>
       </c>
       <c r="L9" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="35">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="O9" s="36">
-        <v>0.09</v>
-      </c>
-      <c r="P9" s="8">
-        <v>70.83</v>
+        <v>29</v>
+      </c>
+      <c r="N9" s="36">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="P9" s="37">
+        <v>79.760000000000005</v>
       </c>
       <c r="Q9">
-        <v>10.307499999999999</v>
+        <v>6.9</v>
       </c>
       <c r="R9">
-        <v>10.58</v>
+        <v>7.6750000000000007</v>
       </c>
       <c r="S9">
-        <v>11.2225</v>
+        <v>9.0425000000000004</v>
       </c>
       <c r="T9" t="s">
         <v>30</v>
       </c>
       <c r="U9">
-        <v>10.130000000000001</v>
+        <v>6.78</v>
       </c>
       <c r="V9">
-        <v>10.75</v>
+        <v>7.09</v>
       </c>
       <c r="W9" t="s">
         <v>31</v>
@@ -1868,73 +1940,73 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>17.13</v>
-      </c>
-      <c r="C10" s="29">
-        <v>46.43</v>
+        <v>11.19</v>
+      </c>
+      <c r="C10" s="38">
+        <v>55.36</v>
       </c>
       <c r="D10">
-        <v>16.7</v>
+        <v>10.565</v>
       </c>
       <c r="E10">
-        <v>17.155000000000001</v>
+        <v>10.955</v>
       </c>
       <c r="F10">
-        <v>17.822500000000002</v>
+        <v>11.3475</v>
       </c>
       <c r="G10">
-        <v>15.54</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="H10">
-        <v>18.489999999999998</v>
+        <v>11.77</v>
       </c>
       <c r="I10">
-        <v>17.239999999999998</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="37">
-        <v>-0.11210000000000001</v>
+        <v>24</v>
+      </c>
+      <c r="K10" s="39">
+        <v>-1.17E-2</v>
       </c>
       <c r="L10" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="38">
-        <v>-0.19850000000000001</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0.18</v>
-      </c>
-      <c r="P10" s="7">
-        <v>16.670000000000002</v>
+        <v>24</v>
+      </c>
+      <c r="N10" s="40">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="O10" s="41">
+        <v>0.09</v>
+      </c>
+      <c r="P10" s="8">
+        <v>70.83</v>
       </c>
       <c r="Q10">
-        <v>17.642499999999998</v>
+        <v>10.307499999999999</v>
       </c>
       <c r="R10">
-        <v>19.405000000000001</v>
+        <v>10.58</v>
       </c>
       <c r="S10">
-        <v>20.8125</v>
+        <v>11.2225</v>
       </c>
       <c r="T10" t="s">
         <v>30</v>
       </c>
       <c r="U10">
-        <v>20.69</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="V10">
-        <v>21.91</v>
+        <v>10.75</v>
       </c>
       <c r="W10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1942,138 +2014,138 @@
         <v>39</v>
       </c>
       <c r="B11">
-        <v>20.59</v>
-      </c>
-      <c r="C11" s="39">
-        <v>82.14</v>
+        <v>17.13</v>
+      </c>
+      <c r="C11" s="34">
+        <v>46.43</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16.7</v>
       </c>
       <c r="E11">
-        <v>19.5</v>
+        <v>17.155000000000001</v>
       </c>
       <c r="F11">
-        <v>20.170000000000002</v>
+        <v>17.822500000000002</v>
       </c>
       <c r="G11">
-        <v>18.5</v>
+        <v>15.54</v>
       </c>
       <c r="H11">
-        <v>20.88</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="I11">
-        <v>19.57</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="40">
-        <v>0.1108</v>
-      </c>
-      <c r="L11" s="41">
-        <v>0.06</v>
+        <v>40</v>
+      </c>
+      <c r="K11" s="42">
+        <v>-0.11210000000000001</v>
+      </c>
+      <c r="L11" s="24">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="42">
-        <v>0.1081</v>
-      </c>
-      <c r="O11" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P11" s="44">
-        <v>78.569999999999993</v>
+        <v>40</v>
+      </c>
+      <c r="N11" s="43">
+        <v>-0.19850000000000001</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="P11" s="7">
+        <v>16.670000000000002</v>
       </c>
       <c r="Q11">
-        <v>19.105</v>
+        <v>17.642499999999998</v>
       </c>
       <c r="R11">
-        <v>20.100000000000001</v>
+        <v>19.405000000000001</v>
       </c>
       <c r="S11">
-        <v>20.512499999999999</v>
+        <v>20.8125</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
       </c>
       <c r="U11">
-        <v>18.53</v>
+        <v>20.69</v>
       </c>
       <c r="V11">
-        <v>19.489999999999998</v>
+        <v>21.91</v>
       </c>
       <c r="W11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>9.76</v>
-      </c>
-      <c r="C12" s="45">
-        <v>67.86</v>
+        <v>20.59</v>
+      </c>
+      <c r="C12" s="29">
+        <v>82.14</v>
       </c>
       <c r="D12">
-        <v>9.3550000000000004</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>9.4700000000000006</v>
+        <v>19.5</v>
       </c>
       <c r="F12">
-        <v>9.8074999999999992</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="G12">
-        <v>8.26</v>
+        <v>18.5</v>
       </c>
       <c r="H12">
-        <v>10.3</v>
+        <v>20.88</v>
       </c>
       <c r="I12">
-        <v>9.5</v>
+        <v>19.57</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="32">
-        <v>-8.2100000000000006E-2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.05</v>
+        <v>29</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0.1108</v>
+      </c>
+      <c r="L12" s="44">
+        <v>0.06</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="46">
-        <v>7.6E-3</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0.17</v>
+        <v>29</v>
+      </c>
+      <c r="N12" s="45">
+        <v>0.1081</v>
+      </c>
+      <c r="O12" s="46">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P12" s="47">
-        <v>28.57</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="Q12">
-        <v>9.57</v>
+        <v>19.105</v>
       </c>
       <c r="R12">
-        <v>10.43</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="S12">
-        <v>11.2</v>
+        <v>20.512499999999999</v>
       </c>
       <c r="T12" t="s">
         <v>30</v>
       </c>
       <c r="U12">
-        <v>8.9499999999999993</v>
+        <v>18.53</v>
       </c>
       <c r="V12">
-        <v>9.57</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="W12" t="s">
         <v>31</v>
@@ -2081,70 +2153,70 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>22.3</v>
-      </c>
-      <c r="C13" s="8">
-        <v>71.430000000000007</v>
+        <v>9.76</v>
+      </c>
+      <c r="C13" s="48">
+        <v>67.86</v>
       </c>
       <c r="D13">
-        <v>21.397500000000001</v>
+        <v>9.3550000000000004</v>
       </c>
       <c r="E13">
-        <v>21.675000000000001</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="F13">
-        <v>22.337499999999999</v>
+        <v>9.8074999999999992</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>8.26</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>10.3</v>
       </c>
       <c r="I13">
-        <v>21.71</v>
+        <v>9.5</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="48">
-        <v>0.1017</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0.04</v>
+        <v>24</v>
+      </c>
+      <c r="K13" s="37">
+        <v>-8.2100000000000006E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.05</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N13" s="49">
-        <v>0.17510000000000001</v>
-      </c>
-      <c r="O13" s="50">
-        <v>0.12</v>
-      </c>
-      <c r="P13" s="51">
-        <v>83.33</v>
+        <v>7.6E-3</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0.17</v>
+      </c>
+      <c r="P13" s="50">
+        <v>28.57</v>
       </c>
       <c r="Q13">
-        <v>19.5</v>
+        <v>9.57</v>
       </c>
       <c r="R13">
-        <v>20.965</v>
+        <v>10.43</v>
       </c>
       <c r="S13">
-        <v>21.8675</v>
+        <v>11.2</v>
       </c>
       <c r="T13" t="s">
         <v>30</v>
       </c>
       <c r="U13">
-        <v>18.93</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="V13">
-        <v>20.09</v>
+        <v>9.57</v>
       </c>
       <c r="W13" t="s">
         <v>31</v>
@@ -2152,37 +2224,37 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>27.72</v>
-      </c>
-      <c r="C14" s="52">
-        <v>89.29</v>
+        <v>22.3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>71.430000000000007</v>
       </c>
       <c r="D14">
-        <v>26.4</v>
+        <v>21.397500000000001</v>
       </c>
       <c r="E14">
-        <v>27.155000000000001</v>
+        <v>21.675000000000001</v>
       </c>
       <c r="F14">
-        <v>27.385000000000002</v>
+        <v>22.337499999999999</v>
       </c>
       <c r="G14">
-        <v>24.62</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>27.8</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>26.84</v>
+        <v>21.71</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="53">
-        <v>8.3699999999999997E-2</v>
+        <v>29</v>
+      </c>
+      <c r="K14" s="51">
+        <v>0.1017</v>
       </c>
       <c r="L14" s="6">
         <v>0.04</v>
@@ -2190,32 +2262,32 @@
       <c r="M14" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="54">
-        <v>0.1449</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P14" s="21">
-        <v>91.67</v>
+      <c r="N14" s="52">
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="O14" s="53">
+        <v>0.12</v>
+      </c>
+      <c r="P14" s="54">
+        <v>83.33</v>
       </c>
       <c r="Q14">
-        <v>24.49</v>
+        <v>19.5</v>
       </c>
       <c r="R14">
-        <v>25.39</v>
+        <v>20.965</v>
       </c>
       <c r="S14">
-        <v>27.015000000000001</v>
+        <v>21.8675</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
       </c>
       <c r="U14">
-        <v>24.07</v>
+        <v>18.93</v>
       </c>
       <c r="V14">
-        <v>25.08</v>
+        <v>20.09</v>
       </c>
       <c r="W14" t="s">
         <v>31</v>
@@ -2223,73 +2295,73 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>5.4</v>
-      </c>
-      <c r="C15" s="13">
-        <v>60.71</v>
+        <v>27.72</v>
+      </c>
+      <c r="C15" s="55">
+        <v>89.29</v>
       </c>
       <c r="D15">
-        <v>5.25</v>
+        <v>26.4</v>
       </c>
       <c r="E15">
-        <v>5.32</v>
+        <v>27.155000000000001</v>
       </c>
       <c r="F15">
-        <v>5.4625000000000004</v>
+        <v>27.385000000000002</v>
       </c>
       <c r="G15">
-        <v>5.12</v>
+        <v>24.62</v>
       </c>
       <c r="H15">
-        <v>5.5</v>
+        <v>27.8</v>
       </c>
       <c r="I15">
-        <v>5.34</v>
+        <v>26.84</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="55">
-        <v>-5.4000000000000003E-3</v>
+      <c r="K15" s="56">
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="L15" s="6">
         <v>0.04</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="56">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="O15" s="57">
-        <v>0.06</v>
-      </c>
-      <c r="P15" s="58">
-        <v>38.69</v>
+        <v>29</v>
+      </c>
+      <c r="N15" s="57">
+        <v>0.1449</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="21">
+        <v>91.67</v>
       </c>
       <c r="Q15">
-        <v>5.3</v>
+        <v>24.49</v>
       </c>
       <c r="R15">
-        <v>5.4649999999999999</v>
+        <v>25.39</v>
       </c>
       <c r="S15">
-        <v>5.6349999999999998</v>
+        <v>27.015000000000001</v>
       </c>
       <c r="T15" t="s">
         <v>30</v>
       </c>
       <c r="U15">
-        <v>5.24</v>
+        <v>24.07</v>
       </c>
       <c r="V15">
-        <v>5.6</v>
+        <v>25.08</v>
       </c>
       <c r="W15" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2297,70 +2369,70 @@
         <v>45</v>
       </c>
       <c r="B16">
-        <v>159.33000000000001</v>
-      </c>
-      <c r="C16" s="22">
-        <v>92.86</v>
+        <v>10.6</v>
+      </c>
+      <c r="C16" s="58">
+        <v>53.57</v>
       </c>
       <c r="D16">
-        <v>146.9725</v>
+        <v>10.3</v>
       </c>
       <c r="E16">
-        <v>149.92500000000001</v>
+        <v>10.505000000000001</v>
       </c>
       <c r="F16">
-        <v>151.46250000000001</v>
+        <v>10.7425</v>
       </c>
       <c r="G16">
-        <v>142.69999999999999</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>160.19999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="I16">
-        <v>150.22</v>
+        <v>10.52</v>
       </c>
       <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="59">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="M16" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="59">
-        <v>0.625</v>
-      </c>
-      <c r="L16" s="60">
-        <v>0.03</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="12">
-        <v>-0.28939999999999999</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="P16" s="61">
-        <v>80.95</v>
+      <c r="N16" s="60">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="O16" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="P16" s="47">
+        <v>78.569999999999993</v>
       </c>
       <c r="Q16">
-        <v>150.5</v>
+        <v>8.6425000000000001</v>
       </c>
       <c r="R16">
-        <v>153.5</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="S16">
-        <v>157.5</v>
+        <v>10.4575</v>
       </c>
       <c r="T16" t="s">
         <v>30</v>
       </c>
       <c r="U16">
-        <v>157.78</v>
+        <v>7.83</v>
       </c>
       <c r="V16">
-        <v>164.74</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="W16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -2368,70 +2440,70 @@
         <v>46</v>
       </c>
       <c r="B17">
-        <v>21.6</v>
-      </c>
-      <c r="C17" s="62">
-        <v>85.71</v>
+        <v>5.4</v>
+      </c>
+      <c r="C17" s="13">
+        <v>60.71</v>
       </c>
       <c r="D17">
-        <v>20.317499999999999</v>
+        <v>5.25</v>
       </c>
       <c r="E17">
-        <v>20.5</v>
+        <v>5.32</v>
       </c>
       <c r="F17">
-        <v>21.002500000000001</v>
+        <v>5.4625000000000004</v>
       </c>
       <c r="G17">
-        <v>18.45</v>
+        <v>5.12</v>
       </c>
       <c r="H17">
-        <v>21.95</v>
+        <v>5.5</v>
       </c>
       <c r="I17">
-        <v>20.63</v>
+        <v>5.34</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="63">
-        <v>0.1396</v>
-      </c>
-      <c r="L17" s="60">
-        <v>0.03</v>
+        <v>24</v>
+      </c>
+      <c r="K17" s="62">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.04</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="64">
-        <v>0.1946</v>
-      </c>
-      <c r="O17" s="65">
-        <v>0.16</v>
-      </c>
-      <c r="P17" s="66">
-        <v>80.36</v>
+        <v>24</v>
+      </c>
+      <c r="N17" s="63">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="O17" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P17" s="65">
+        <v>38.69</v>
       </c>
       <c r="Q17">
-        <v>18.420000000000002</v>
+        <v>5.3</v>
       </c>
       <c r="R17">
-        <v>20.484999999999999</v>
+        <v>5.4649999999999999</v>
       </c>
       <c r="S17">
-        <v>21.395</v>
+        <v>5.6349999999999998</v>
       </c>
       <c r="T17" t="s">
         <v>30</v>
       </c>
       <c r="U17">
-        <v>17.66</v>
+        <v>5.24</v>
       </c>
       <c r="V17">
-        <v>18.100000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="W17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2439,70 +2511,70 @@
         <v>47</v>
       </c>
       <c r="B18">
-        <v>2.63</v>
-      </c>
-      <c r="C18" s="67">
-        <v>39.29</v>
+        <v>15.23</v>
+      </c>
+      <c r="C18" s="66">
+        <v>41.07</v>
       </c>
       <c r="D18">
-        <v>2.61</v>
+        <v>14.885</v>
       </c>
       <c r="E18">
-        <v>2.65</v>
+        <v>15.24</v>
       </c>
       <c r="F18">
-        <v>2.68</v>
+        <v>15.547499999999999</v>
       </c>
       <c r="G18">
-        <v>2.5</v>
+        <v>14.52</v>
       </c>
       <c r="H18">
-        <v>2.72</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I18">
-        <v>2.64</v>
+        <v>15.13</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="55">
-        <v>-9.1999999999999998E-3</v>
-      </c>
-      <c r="L18" s="60">
-        <v>0.03</v>
+      <c r="K18" s="67">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.04</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="68">
-        <v>-7.3000000000000001E-3</v>
-      </c>
-      <c r="O18" s="69">
-        <v>0.04</v>
-      </c>
-      <c r="P18" s="70">
-        <v>13.1</v>
+      <c r="N18" s="63">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O18" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P18" s="68">
+        <v>22.02</v>
       </c>
       <c r="Q18">
-        <v>2.67</v>
+        <v>15.24</v>
       </c>
       <c r="R18">
-        <v>2.7149999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="S18">
-        <v>2.7825000000000002</v>
+        <v>16.112500000000001</v>
       </c>
       <c r="T18" t="s">
         <v>30</v>
       </c>
       <c r="U18">
-        <v>2.75</v>
+        <v>15.05</v>
       </c>
       <c r="V18">
-        <v>2.84</v>
+        <v>15.74</v>
       </c>
       <c r="W18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -2510,70 +2582,70 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>3.74</v>
-      </c>
-      <c r="C19" s="19">
-        <v>62.5</v>
+        <v>159.33000000000001</v>
+      </c>
+      <c r="C19" s="22">
+        <v>92.86</v>
       </c>
       <c r="D19">
-        <v>3.65</v>
+        <v>146.9725</v>
       </c>
       <c r="E19">
-        <v>3.6949999999999998</v>
+        <v>149.92500000000001</v>
       </c>
       <c r="F19">
-        <v>3.75</v>
+        <v>151.46250000000001</v>
       </c>
       <c r="G19">
-        <v>3.45</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="H19">
-        <v>3.89</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="I19">
-        <v>3.69</v>
+        <v>150.22</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="34">
-        <v>-1.67E-2</v>
-      </c>
-      <c r="L19" s="60">
+        <v>29</v>
+      </c>
+      <c r="K19" s="69">
+        <v>0.625</v>
+      </c>
+      <c r="L19" s="70">
         <v>0.03</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="71">
-        <v>-1.84E-2</v>
-      </c>
-      <c r="O19" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P19" s="72">
-        <v>22.62</v>
+        <v>40</v>
+      </c>
+      <c r="N19" s="12">
+        <v>-0.28939999999999999</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="P19" s="71">
+        <v>80.95</v>
       </c>
       <c r="Q19">
-        <v>3.74</v>
+        <v>150.5</v>
       </c>
       <c r="R19">
-        <v>3.89</v>
+        <v>153.5</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>157.5</v>
       </c>
       <c r="T19" t="s">
         <v>30</v>
       </c>
       <c r="U19">
-        <v>3.88</v>
+        <v>157.78</v>
       </c>
       <c r="V19">
-        <v>4.1100000000000003</v>
+        <v>164.74</v>
       </c>
       <c r="W19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2581,70 +2653,70 @@
         <v>49</v>
       </c>
       <c r="B20">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="C20" s="2">
-        <v>50</v>
+        <v>21.6</v>
+      </c>
+      <c r="C20" s="72">
+        <v>85.71</v>
       </c>
       <c r="D20">
-        <v>9.5850000000000009</v>
+        <v>20.317499999999999</v>
       </c>
       <c r="E20">
-        <v>9.7650000000000006</v>
+        <v>20.5</v>
       </c>
       <c r="F20">
-        <v>9.84</v>
+        <v>21.002500000000001</v>
       </c>
       <c r="G20">
-        <v>9.07</v>
+        <v>18.45</v>
       </c>
       <c r="H20">
-        <v>10.3</v>
+        <v>21.95</v>
       </c>
       <c r="I20">
-        <v>9.73</v>
+        <v>20.63</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K20" s="73">
-        <v>-3.8699999999999998E-2</v>
-      </c>
-      <c r="L20" s="60">
+        <v>0.1396</v>
+      </c>
+      <c r="L20" s="70">
         <v>0.03</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N20" s="74">
-        <v>-2.5399999999999999E-2</v>
+        <v>0.1946</v>
       </c>
       <c r="O20" s="75">
-        <v>0.08</v>
-      </c>
-      <c r="P20" s="7">
-        <v>16.670000000000002</v>
+        <v>0.16</v>
+      </c>
+      <c r="P20" s="76">
+        <v>80.36</v>
       </c>
       <c r="Q20">
-        <v>9.8324999999999996</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="R20">
-        <v>10.4</v>
+        <v>20.484999999999999</v>
       </c>
       <c r="S20">
-        <v>10.6</v>
+        <v>21.395</v>
       </c>
       <c r="T20" t="s">
         <v>30</v>
       </c>
       <c r="U20">
-        <v>9.98</v>
+        <v>17.66</v>
       </c>
       <c r="V20">
-        <v>10.63</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="W20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2652,70 +2724,70 @@
         <v>50</v>
       </c>
       <c r="B21">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="C21" s="76">
-        <v>42.86</v>
+        <v>2.63</v>
+      </c>
+      <c r="C21" s="77">
+        <v>39.29</v>
       </c>
       <c r="D21">
-        <v>8.807500000000001</v>
+        <v>2.61</v>
       </c>
       <c r="E21">
-        <v>8.9700000000000006</v>
+        <v>2.65</v>
       </c>
       <c r="F21">
-        <v>9.1050000000000004</v>
+        <v>2.68</v>
       </c>
       <c r="G21">
-        <v>8.51</v>
+        <v>2.5</v>
       </c>
       <c r="H21">
-        <v>9.43</v>
+        <v>2.72</v>
       </c>
       <c r="I21">
-        <v>8.92</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="77">
-        <v>-4.3299999999999998E-2</v>
-      </c>
-      <c r="L21" s="60">
+      <c r="K21" s="62">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="L21" s="70">
         <v>0.03</v>
       </c>
       <c r="M21" t="s">
         <v>24</v>
       </c>
       <c r="N21" s="78">
-        <v>2.35E-2</v>
-      </c>
-      <c r="O21" s="57">
-        <v>0.06</v>
-      </c>
-      <c r="P21" s="13">
-        <v>58.33</v>
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="O21" s="79">
+        <v>0.04</v>
+      </c>
+      <c r="P21" s="80">
+        <v>13.1</v>
       </c>
       <c r="Q21">
-        <v>8.5724999999999998</v>
+        <v>2.67</v>
       </c>
       <c r="R21">
-        <v>8.82</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="S21">
-        <v>9.0749999999999993</v>
+        <v>2.7825000000000002</v>
       </c>
       <c r="T21" t="s">
         <v>30</v>
       </c>
       <c r="U21">
-        <v>8.35</v>
+        <v>2.75</v>
       </c>
       <c r="V21">
-        <v>8.73</v>
+        <v>2.84</v>
       </c>
       <c r="W21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2723,70 +2795,70 @@
         <v>51</v>
       </c>
       <c r="B22">
-        <v>34.76</v>
-      </c>
-      <c r="C22" s="45">
-        <v>67.86</v>
+        <v>19.45</v>
+      </c>
+      <c r="C22" s="22">
+        <v>92.86</v>
       </c>
       <c r="D22">
-        <v>33.877499999999998</v>
+        <v>18.077500000000001</v>
       </c>
       <c r="E22">
-        <v>34.380000000000003</v>
+        <v>18.375</v>
       </c>
       <c r="F22">
-        <v>34.880000000000003</v>
+        <v>18.54</v>
       </c>
       <c r="G22">
-        <v>33.51</v>
+        <v>17.52</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>19.47</v>
       </c>
       <c r="I22">
-        <v>34.26</v>
+        <v>18.41</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="44">
-        <v>-6.54E-2</v>
-      </c>
-      <c r="L22" s="60">
+      <c r="K22" s="62">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="L22" s="70">
         <v>0.03</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="34">
-        <v>-4.07E-2</v>
-      </c>
-      <c r="O22" s="69">
-        <v>0.04</v>
-      </c>
-      <c r="P22" s="79">
-        <v>39.29</v>
+        <v>29</v>
+      </c>
+      <c r="N22" s="81">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O22" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P22" s="82">
+        <v>88.1</v>
       </c>
       <c r="Q22">
-        <v>34.380000000000003</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="R22">
-        <v>35</v>
+        <v>18.3</v>
       </c>
       <c r="S22">
-        <v>35.652500000000003</v>
+        <v>18.95</v>
       </c>
       <c r="T22" t="s">
         <v>30</v>
       </c>
       <c r="U22">
-        <v>34.479999999999997</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="V22">
-        <v>35.22</v>
+        <v>18.14</v>
       </c>
       <c r="W22" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2794,70 +2866,70 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>13.9</v>
-      </c>
-      <c r="C23" s="7">
-        <v>25</v>
+        <v>3.74</v>
+      </c>
+      <c r="C23" s="19">
+        <v>62.5</v>
       </c>
       <c r="D23">
-        <v>13.875</v>
+        <v>3.65</v>
       </c>
       <c r="E23">
-        <v>14.13</v>
+        <v>3.6949999999999998</v>
       </c>
       <c r="F23">
-        <v>14.3</v>
+        <v>3.75</v>
       </c>
       <c r="G23">
-        <v>13.38</v>
+        <v>3.45</v>
       </c>
       <c r="H23">
-        <v>14.5</v>
+        <v>3.89</v>
       </c>
       <c r="I23">
-        <v>14.16</v>
+        <v>3.69</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="80">
-        <v>-7.2099999999999997E-2</v>
-      </c>
-      <c r="L23" s="60">
+      <c r="K23" s="39">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="L23" s="70">
         <v>0.03</v>
       </c>
       <c r="M23" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="53">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="O23" s="81">
-        <v>0.03</v>
-      </c>
-      <c r="P23" s="82">
-        <v>52.98</v>
+      <c r="N23" s="83">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="O23" s="46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P23" s="84">
+        <v>22.62</v>
       </c>
       <c r="Q23">
-        <v>13.66</v>
+        <v>3.74</v>
       </c>
       <c r="R23">
-        <v>13.855</v>
+        <v>3.89</v>
       </c>
       <c r="S23">
-        <v>14.102499999999999</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s">
         <v>30</v>
       </c>
       <c r="U23">
-        <v>13.33</v>
+        <v>3.88</v>
       </c>
       <c r="V23">
-        <v>14.02</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="W23" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2865,70 +2937,70 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <v>6.3</v>
-      </c>
-      <c r="C24" s="83">
-        <v>66.069999999999993</v>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>6.1624999999999996</v>
+        <v>9.5850000000000009</v>
       </c>
       <c r="E24">
-        <v>6.2249999999999996</v>
+        <v>9.7650000000000006</v>
       </c>
       <c r="F24">
-        <v>6.3125</v>
+        <v>9.84</v>
       </c>
       <c r="G24">
-        <v>5.75</v>
+        <v>9.07</v>
       </c>
       <c r="H24">
-        <v>6.46</v>
+        <v>10.3</v>
       </c>
       <c r="I24">
-        <v>6.2</v>
+        <v>9.73</v>
       </c>
       <c r="J24" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="34">
-        <v>-1.29E-2</v>
-      </c>
-      <c r="L24" s="43">
-        <v>0.02</v>
+      <c r="K24" s="85">
+        <v>-3.8699999999999998E-2</v>
+      </c>
+      <c r="L24" s="70">
+        <v>0.03</v>
       </c>
       <c r="M24" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="78">
-        <v>2.41E-2</v>
-      </c>
-      <c r="O24" s="57">
-        <v>0.06</v>
-      </c>
-      <c r="P24" s="84">
-        <v>46.43</v>
+      <c r="N24" s="86">
+        <v>-2.5399999999999999E-2</v>
+      </c>
+      <c r="O24" s="87">
+        <v>0.08</v>
+      </c>
+      <c r="P24" s="7">
+        <v>16.670000000000002</v>
       </c>
       <c r="Q24">
-        <v>6.1624999999999996</v>
+        <v>9.8324999999999996</v>
       </c>
       <c r="R24">
-        <v>6.3049999999999997</v>
+        <v>10.4</v>
       </c>
       <c r="S24">
-        <v>6.5625</v>
+        <v>10.6</v>
       </c>
       <c r="T24" t="s">
         <v>30</v>
       </c>
       <c r="U24">
-        <v>5.77</v>
+        <v>9.98</v>
       </c>
       <c r="V24">
-        <v>6.12</v>
+        <v>10.63</v>
       </c>
       <c r="W24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2936,70 +3008,70 @@
         <v>54</v>
       </c>
       <c r="B25">
-        <v>22.11</v>
-      </c>
-      <c r="C25" s="2">
-        <v>50</v>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C25" s="88">
+        <v>42.86</v>
       </c>
       <c r="D25">
-        <v>21.785</v>
+        <v>8.807500000000001</v>
       </c>
       <c r="E25">
-        <v>22.11</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="F25">
-        <v>22.3</v>
+        <v>9.1050000000000004</v>
       </c>
       <c r="G25">
-        <v>20.11</v>
+        <v>8.51</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>9.43</v>
       </c>
       <c r="I25">
-        <v>21.85</v>
+        <v>8.92</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="61">
-        <v>-0.1037</v>
-      </c>
-      <c r="L25" s="43">
-        <v>0.02</v>
+        <v>24</v>
+      </c>
+      <c r="K25" s="89">
+        <v>-4.3299999999999998E-2</v>
+      </c>
+      <c r="L25" s="70">
+        <v>0.03</v>
       </c>
       <c r="M25" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="85">
-        <v>-2.9700000000000001E-2</v>
-      </c>
-      <c r="O25" s="69">
-        <v>0.04</v>
-      </c>
-      <c r="P25" s="86">
-        <v>18.45</v>
+      <c r="N25" s="90">
+        <v>2.35E-2</v>
+      </c>
+      <c r="O25" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P25" s="13">
+        <v>58.33</v>
       </c>
       <c r="Q25">
-        <v>22.247499999999999</v>
+        <v>8.5724999999999998</v>
       </c>
       <c r="R25">
-        <v>22.76</v>
+        <v>8.82</v>
       </c>
       <c r="S25">
-        <v>23.225000000000001</v>
+        <v>9.0749999999999993</v>
       </c>
       <c r="T25" t="s">
         <v>30</v>
       </c>
       <c r="U25">
-        <v>22.27</v>
+        <v>8.35</v>
       </c>
       <c r="V25">
-        <v>23.37</v>
+        <v>8.73</v>
       </c>
       <c r="W25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -3007,70 +3079,70 @@
         <v>55</v>
       </c>
       <c r="B26">
-        <v>97.97</v>
-      </c>
-      <c r="C26" s="23">
-        <v>17.86</v>
+        <v>34.76</v>
+      </c>
+      <c r="C26" s="48">
+        <v>67.86</v>
       </c>
       <c r="D26">
-        <v>98</v>
+        <v>33.877499999999998</v>
       </c>
       <c r="E26">
-        <v>99.14500000000001</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="G26">
-        <v>92.78</v>
+        <v>33.51</v>
       </c>
       <c r="H26">
-        <v>102.5</v>
+        <v>36</v>
       </c>
       <c r="I26">
-        <v>99.27</v>
+        <v>34.26</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="12">
-        <v>-0.4083</v>
-      </c>
-      <c r="L26" s="43">
-        <v>0.02</v>
+        <v>24</v>
+      </c>
+      <c r="K26" s="47">
+        <v>-6.54E-2</v>
+      </c>
+      <c r="L26" s="70">
+        <v>0.03</v>
       </c>
       <c r="M26" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="17">
-        <v>-8.14E-2</v>
-      </c>
-      <c r="O26" s="69">
+        <v>24</v>
+      </c>
+      <c r="N26" s="39">
+        <v>-4.07E-2</v>
+      </c>
+      <c r="O26" s="79">
         <v>0.04</v>
       </c>
-      <c r="P26" s="23">
-        <v>8.33</v>
+      <c r="P26" s="91">
+        <v>39.29</v>
       </c>
       <c r="Q26">
-        <v>98.95</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="R26">
-        <v>100.035</v>
+        <v>35</v>
       </c>
       <c r="S26">
-        <v>102.49250000000001</v>
+        <v>35.652500000000003</v>
       </c>
       <c r="T26" t="s">
         <v>30</v>
       </c>
       <c r="U26">
-        <v>97.49</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="V26">
-        <v>100.22</v>
+        <v>35.22</v>
       </c>
       <c r="W26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -3078,70 +3150,70 @@
         <v>56</v>
       </c>
       <c r="B27">
-        <v>18.18</v>
-      </c>
-      <c r="C27" s="52">
-        <v>89.29</v>
+        <v>13.9</v>
+      </c>
+      <c r="C27" s="7">
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>17.774999999999999</v>
+        <v>13.875</v>
       </c>
       <c r="E27">
-        <v>17.95</v>
+        <v>14.13</v>
       </c>
       <c r="F27">
-        <v>18.004999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="G27">
-        <v>17.010000000000002</v>
+        <v>13.38</v>
       </c>
       <c r="H27">
-        <v>18.55</v>
+        <v>14.5</v>
       </c>
       <c r="I27">
-        <v>17.93</v>
+        <v>14.16</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="68">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="L27" s="81">
-        <v>0.01</v>
+      <c r="K27" s="92">
+        <v>-7.2099999999999997E-2</v>
+      </c>
+      <c r="L27" s="70">
+        <v>0.03</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="19">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="O27" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P27" s="22">
-        <v>96.43</v>
+        <v>24</v>
+      </c>
+      <c r="N27" s="56">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="P27" s="93">
+        <v>52.98</v>
       </c>
       <c r="Q27">
-        <v>16.7075</v>
+        <v>13.66</v>
       </c>
       <c r="R27">
-        <v>17.274999999999999</v>
+        <v>13.855</v>
       </c>
       <c r="S27">
-        <v>17.8</v>
+        <v>14.102499999999999</v>
       </c>
       <c r="T27" t="s">
         <v>30</v>
       </c>
       <c r="U27">
-        <v>15.13</v>
+        <v>13.33</v>
       </c>
       <c r="V27">
-        <v>16.46</v>
+        <v>14.02</v>
       </c>
       <c r="W27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -3149,67 +3221,67 @@
         <v>57</v>
       </c>
       <c r="B28">
-        <v>7.99</v>
-      </c>
-      <c r="C28" s="12">
-        <v>94.64</v>
+        <v>6.3</v>
+      </c>
+      <c r="C28" s="94">
+        <v>66.069999999999993</v>
       </c>
       <c r="D28">
-        <v>7.45</v>
+        <v>6.1624999999999996</v>
       </c>
       <c r="E28">
-        <v>7.6</v>
+        <v>6.2249999999999996</v>
       </c>
       <c r="F28">
-        <v>7.7125000000000004</v>
+        <v>6.3125</v>
       </c>
       <c r="G28">
-        <v>7.12</v>
+        <v>5.75</v>
       </c>
       <c r="H28">
-        <v>7.99</v>
+        <v>6.46</v>
       </c>
       <c r="I28">
-        <v>7.63</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="87">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0.04</v>
+      <c r="K28" s="39">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="L28" s="46">
+        <v>0.02</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="88">
-        <v>2.7E-2</v>
-      </c>
-      <c r="O28" s="69">
-        <v>0.04</v>
-      </c>
-      <c r="P28" s="89">
-        <v>95.83</v>
+      <c r="N28" s="90">
+        <v>2.41E-2</v>
+      </c>
+      <c r="O28" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P28" s="95">
+        <v>46.43</v>
       </c>
       <c r="Q28">
-        <v>7.45</v>
+        <v>6.1624999999999996</v>
       </c>
       <c r="R28">
-        <v>7.6</v>
+        <v>6.3049999999999997</v>
       </c>
       <c r="S28">
-        <v>7.74</v>
+        <v>6.5625</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="U28">
-        <v>7.29</v>
+        <v>5.77</v>
       </c>
       <c r="V28">
-        <v>7.71</v>
+        <v>6.12</v>
       </c>
       <c r="W28" t="s">
         <v>31</v>
@@ -3217,250 +3289,250 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29">
-        <v>5.76</v>
-      </c>
-      <c r="C29" s="62">
-        <v>85.71</v>
+        <v>22.11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>5.3624999999999998</v>
+        <v>21.785</v>
       </c>
       <c r="E29">
-        <v>5.5</v>
+        <v>22.11</v>
       </c>
       <c r="F29">
-        <v>5.5975000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="G29">
-        <v>5.04</v>
+        <v>20.11</v>
       </c>
       <c r="H29">
-        <v>5.8</v>
+        <v>23</v>
       </c>
       <c r="I29">
-        <v>5.5</v>
+        <v>21.85</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="34">
-        <v>-1.21E-2</v>
-      </c>
-      <c r="L29" s="6">
+        <v>40</v>
+      </c>
+      <c r="K29" s="71">
+        <v>-0.1037</v>
+      </c>
+      <c r="L29" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="96">
+        <v>-2.9700000000000001E-2</v>
+      </c>
+      <c r="O29" s="79">
         <v>0.04</v>
       </c>
-      <c r="M29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="78">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="O29" s="75">
-        <v>0.08</v>
-      </c>
-      <c r="P29" s="90">
-        <v>89.29</v>
+      <c r="P29" s="97">
+        <v>18.45</v>
       </c>
       <c r="Q29">
-        <v>5.15</v>
+        <v>22.247499999999999</v>
       </c>
       <c r="R29">
-        <v>5.375</v>
+        <v>22.76</v>
       </c>
       <c r="S29">
-        <v>5.5575000000000001</v>
+        <v>23.225000000000001</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="U29">
-        <v>5.01</v>
+        <v>22.27</v>
       </c>
       <c r="V29">
-        <v>5.21</v>
+        <v>23.37</v>
       </c>
       <c r="W29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30">
-        <v>6.7</v>
-      </c>
-      <c r="C30" s="91">
-        <v>73.209999999999994</v>
+        <v>97.97</v>
+      </c>
+      <c r="C30" s="23">
+        <v>17.86</v>
       </c>
       <c r="D30">
-        <v>6.4950000000000001</v>
+        <v>98</v>
       </c>
       <c r="E30">
-        <v>6.6300000000000008</v>
+        <v>99.14500000000001</v>
       </c>
       <c r="F30">
-        <v>6.7</v>
+        <v>100</v>
       </c>
       <c r="G30">
-        <v>6.18</v>
+        <v>92.78</v>
       </c>
       <c r="H30">
-        <v>6.8</v>
+        <v>102.5</v>
       </c>
       <c r="I30">
-        <v>6.59</v>
+        <v>99.27</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="68">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="L30" s="60">
-        <v>0.03</v>
+        <v>40</v>
+      </c>
+      <c r="K30" s="12">
+        <v>-0.4083</v>
+      </c>
+      <c r="L30" s="46">
+        <v>0.02</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="8">
-        <v>1.12E-2</v>
-      </c>
-      <c r="O30" s="69">
+        <v>40</v>
+      </c>
+      <c r="N30" s="17">
+        <v>-8.14E-2</v>
+      </c>
+      <c r="O30" s="79">
         <v>0.04</v>
       </c>
-      <c r="P30" s="92">
-        <v>82.74</v>
+      <c r="P30" s="23">
+        <v>8.33</v>
       </c>
       <c r="Q30">
-        <v>6.3975</v>
+        <v>98.95</v>
       </c>
       <c r="R30">
-        <v>6.5</v>
+        <v>100.035</v>
       </c>
       <c r="S30">
-        <v>6.665</v>
+        <v>102.49250000000001</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="U30">
-        <v>6.29</v>
+        <v>97.49</v>
       </c>
       <c r="V30">
-        <v>6.79</v>
+        <v>100.22</v>
       </c>
       <c r="W30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31">
-        <v>12.95</v>
-      </c>
-      <c r="C31" s="62">
-        <v>85.71</v>
+        <v>18.18</v>
+      </c>
+      <c r="C31" s="55">
+        <v>89.29</v>
       </c>
       <c r="D31">
-        <v>12.022500000000001</v>
+        <v>17.774999999999999</v>
       </c>
       <c r="E31">
-        <v>12.234999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F31">
-        <v>12.8025</v>
+        <v>18.004999999999999</v>
       </c>
       <c r="G31">
-        <v>11.32</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="H31">
-        <v>13.1</v>
+        <v>18.55</v>
       </c>
       <c r="I31">
-        <v>12.33</v>
+        <v>17.93</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="9">
-        <v>-3.04E-2</v>
-      </c>
-      <c r="L31" s="41">
-        <v>0.06</v>
+      <c r="K31" s="78">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="L31" s="32">
+        <v>0.01</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="93">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="O31" s="57">
-        <v>0.06</v>
-      </c>
-      <c r="P31" s="28">
-        <v>55.95</v>
+        <v>29</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="O31" s="46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P31" s="22">
+        <v>96.43</v>
       </c>
       <c r="Q31">
-        <v>12.645</v>
+        <v>16.7075</v>
       </c>
       <c r="R31">
-        <v>12.9</v>
+        <v>17.274999999999999</v>
       </c>
       <c r="S31">
-        <v>13.4025</v>
+        <v>17.8</v>
       </c>
       <c r="T31" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="U31">
-        <v>13.19</v>
+        <v>15.13</v>
       </c>
       <c r="V31">
-        <v>13.92</v>
+        <v>16.46</v>
       </c>
       <c r="W31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32">
-        <v>5.32</v>
-      </c>
-      <c r="C32" s="22">
-        <v>92.86</v>
+        <v>7.99</v>
+      </c>
+      <c r="C32" s="12">
+        <v>94.64</v>
       </c>
       <c r="D32">
-        <v>4.9450000000000003</v>
+        <v>7.45</v>
       </c>
       <c r="E32">
-        <v>5.0350000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="F32">
-        <v>5.1224999999999996</v>
+        <v>7.7125000000000004</v>
       </c>
       <c r="G32">
-        <v>4.3899999999999997</v>
+        <v>7.12</v>
       </c>
       <c r="H32">
-        <v>5.35</v>
+        <v>7.99</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>7.63</v>
       </c>
       <c r="J32" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="5">
-        <v>2.8299999999999999E-2</v>
+      <c r="K32" s="59">
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="L32" s="6">
         <v>0.04</v>
@@ -3468,70 +3540,70 @@
       <c r="M32" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="5">
-        <v>-1.47E-2</v>
-      </c>
-      <c r="O32" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P32" s="58">
-        <v>38.69</v>
+      <c r="N32" s="98">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O32" s="79">
+        <v>0.04</v>
+      </c>
+      <c r="P32" s="99">
+        <v>95.83</v>
       </c>
       <c r="Q32">
-        <v>5.12</v>
+        <v>7.45</v>
       </c>
       <c r="R32">
-        <v>5.39</v>
+        <v>7.6</v>
       </c>
       <c r="S32">
-        <v>5.5025000000000004</v>
+        <v>7.74</v>
       </c>
       <c r="T32" t="s">
         <v>62</v>
       </c>
       <c r="U32">
-        <v>5.38</v>
+        <v>7.29</v>
       </c>
       <c r="V32">
-        <v>5.63</v>
+        <v>7.71</v>
       </c>
       <c r="W32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>2.63</v>
-      </c>
-      <c r="C33" s="52">
-        <v>89.29</v>
+        <v>5.76</v>
+      </c>
+      <c r="C33" s="72">
+        <v>85.71</v>
       </c>
       <c r="D33">
-        <v>2.4900000000000002</v>
+        <v>5.3624999999999998</v>
       </c>
       <c r="E33">
-        <v>2.5449999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="F33">
-        <v>2.6</v>
+        <v>5.5975000000000001</v>
       </c>
       <c r="G33">
-        <v>2.31</v>
+        <v>5.04</v>
       </c>
       <c r="H33">
-        <v>2.66</v>
+        <v>5.8</v>
       </c>
       <c r="I33">
-        <v>2.5299999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="74">
-        <v>8.8000000000000005E-3</v>
+      <c r="K33" s="39">
+        <v>-1.21E-2</v>
       </c>
       <c r="L33" s="6">
         <v>0.04</v>
@@ -3539,174 +3611,174 @@
       <c r="M33" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="5">
-        <v>-1.37E-2</v>
-      </c>
-      <c r="O33" s="60">
-        <v>0.11</v>
-      </c>
-      <c r="P33" s="94">
-        <v>32.14</v>
+      <c r="N33" s="90">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="O33" s="87">
+        <v>0.08</v>
+      </c>
+      <c r="P33" s="100">
+        <v>89.29</v>
       </c>
       <c r="Q33">
-        <v>2.5950000000000002</v>
+        <v>5.15</v>
       </c>
       <c r="R33">
-        <v>2.82</v>
+        <v>5.375</v>
       </c>
       <c r="S33">
-        <v>2.8925000000000001</v>
+        <v>5.5575000000000001</v>
       </c>
       <c r="T33" t="s">
         <v>62</v>
       </c>
       <c r="U33">
-        <v>2.84</v>
+        <v>5.01</v>
       </c>
       <c r="V33">
-        <v>2.97</v>
+        <v>5.21</v>
       </c>
       <c r="W33" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>3.14</v>
-      </c>
-      <c r="C34" s="95">
-        <v>83.93</v>
+        <v>6.7</v>
+      </c>
+      <c r="C34" s="101">
+        <v>73.209999999999994</v>
       </c>
       <c r="D34">
-        <v>3.02</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="E34">
-        <v>3.05</v>
+        <v>6.6300000000000008</v>
       </c>
       <c r="F34">
-        <v>3.13</v>
+        <v>6.7</v>
       </c>
       <c r="G34">
-        <v>2.82</v>
+        <v>6.18</v>
       </c>
       <c r="H34">
-        <v>3.18</v>
+        <v>6.8</v>
       </c>
       <c r="I34">
-        <v>3.06</v>
+        <v>6.59</v>
       </c>
       <c r="J34" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="96">
-        <v>-4.5999999999999999E-3</v>
-      </c>
-      <c r="L34" s="6">
+      <c r="K34" s="78">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="L34" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="8">
+        <v>1.12E-2</v>
+      </c>
+      <c r="O34" s="79">
         <v>0.04</v>
       </c>
-      <c r="M34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="56">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O34" s="57">
-        <v>0.06</v>
-      </c>
-      <c r="P34" s="97">
-        <v>51.79</v>
+      <c r="P34" s="102">
+        <v>82.74</v>
       </c>
       <c r="Q34">
-        <v>3.05</v>
+        <v>6.3975</v>
       </c>
       <c r="R34">
-        <v>3.1349999999999998</v>
+        <v>6.5</v>
       </c>
       <c r="S34">
-        <v>3.23</v>
+        <v>6.665</v>
       </c>
       <c r="T34" t="s">
         <v>62</v>
       </c>
       <c r="U34">
-        <v>3.07</v>
+        <v>6.29</v>
       </c>
       <c r="V34">
-        <v>3.21</v>
+        <v>6.79</v>
       </c>
       <c r="W34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>12.95</v>
+      </c>
+      <c r="C35" s="72">
+        <v>85.71</v>
+      </c>
+      <c r="D35">
+        <v>12.022500000000001</v>
+      </c>
+      <c r="E35">
+        <v>12.234999999999999</v>
+      </c>
+      <c r="F35">
+        <v>12.8025</v>
+      </c>
+      <c r="G35">
+        <v>11.32</v>
+      </c>
+      <c r="H35">
+        <v>13.1</v>
+      </c>
+      <c r="I35">
+        <v>12.33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="9">
+        <v>-3.04E-2</v>
+      </c>
+      <c r="L35" s="44">
+        <v>0.06</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="103">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+      <c r="O35" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P35" s="28">
+        <v>55.95</v>
+      </c>
+      <c r="Q35">
+        <v>12.645</v>
+      </c>
+      <c r="R35">
+        <v>12.9</v>
+      </c>
+      <c r="S35">
+        <v>13.4025</v>
+      </c>
+      <c r="T35" t="s">
         <v>66</v>
       </c>
-      <c r="B35">
-        <v>42</v>
-      </c>
-      <c r="C35" s="96">
-        <v>75</v>
-      </c>
-      <c r="D35">
-        <v>40.337499999999999</v>
-      </c>
-      <c r="E35">
-        <v>41.16</v>
-      </c>
-      <c r="F35">
-        <v>41.924999999999997</v>
-      </c>
-      <c r="G35">
-        <v>39.25</v>
-      </c>
-      <c r="H35">
-        <v>42.9</v>
-      </c>
-      <c r="I35">
-        <v>41.19</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="98">
-        <v>-0.13880000000000001</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="M35" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="62">
-        <v>-0.17549999999999999</v>
-      </c>
-      <c r="O35" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="P35" s="99">
-        <v>26.19</v>
-      </c>
-      <c r="Q35">
-        <v>41.875</v>
-      </c>
-      <c r="R35">
-        <v>43.08</v>
-      </c>
-      <c r="S35">
-        <v>44.052500000000002</v>
-      </c>
-      <c r="T35" t="s">
-        <v>62</v>
-      </c>
       <c r="U35">
-        <v>43.78</v>
+        <v>13.19</v>
       </c>
       <c r="V35">
-        <v>46.24</v>
+        <v>13.92</v>
       </c>
       <c r="W35" t="s">
         <v>26</v>
@@ -3717,70 +3789,354 @@
         <v>67</v>
       </c>
       <c r="B36">
-        <v>4.82</v>
+        <v>5.32</v>
       </c>
       <c r="C36" s="22">
         <v>92.86</v>
       </c>
       <c r="D36">
+        <v>4.9450000000000003</v>
+      </c>
+      <c r="E36">
+        <v>5.0350000000000001</v>
+      </c>
+      <c r="F36">
+        <v>5.1224999999999996</v>
+      </c>
+      <c r="G36">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H36">
+        <v>5.35</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="5">
+        <v>-1.47E-2</v>
+      </c>
+      <c r="O36" s="46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P36" s="65">
+        <v>38.69</v>
+      </c>
+      <c r="Q36">
+        <v>5.12</v>
+      </c>
+      <c r="R36">
+        <v>5.39</v>
+      </c>
+      <c r="S36">
+        <v>5.5025000000000004</v>
+      </c>
+      <c r="T36" t="s">
+        <v>66</v>
+      </c>
+      <c r="U36">
+        <v>5.38</v>
+      </c>
+      <c r="V36">
+        <v>5.63</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>2.63</v>
+      </c>
+      <c r="C37" s="55">
+        <v>89.29</v>
+      </c>
+      <c r="D37">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E37">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="F37">
+        <v>2.6</v>
+      </c>
+      <c r="G37">
+        <v>2.31</v>
+      </c>
+      <c r="H37">
+        <v>2.66</v>
+      </c>
+      <c r="I37">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="86">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="5">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="O37" s="70">
+        <v>0.11</v>
+      </c>
+      <c r="P37" s="104">
+        <v>32.14</v>
+      </c>
+      <c r="Q37">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="R37">
+        <v>2.82</v>
+      </c>
+      <c r="S37">
+        <v>2.8925000000000001</v>
+      </c>
+      <c r="T37" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37">
+        <v>2.84</v>
+      </c>
+      <c r="V37">
+        <v>2.97</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>3.14</v>
+      </c>
+      <c r="C38" s="105">
+        <v>83.93</v>
+      </c>
+      <c r="D38">
+        <v>3.02</v>
+      </c>
+      <c r="E38">
+        <v>3.05</v>
+      </c>
+      <c r="F38">
+        <v>3.13</v>
+      </c>
+      <c r="G38">
+        <v>2.82</v>
+      </c>
+      <c r="H38">
+        <v>3.18</v>
+      </c>
+      <c r="I38">
+        <v>3.06</v>
+      </c>
+      <c r="J38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="106">
+        <v>-4.5999999999999999E-3</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="63">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O38" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P38" s="107">
+        <v>51.79</v>
+      </c>
+      <c r="Q38">
+        <v>3.05</v>
+      </c>
+      <c r="R38">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="S38">
+        <v>3.23</v>
+      </c>
+      <c r="T38" t="s">
+        <v>66</v>
+      </c>
+      <c r="U38">
+        <v>3.07</v>
+      </c>
+      <c r="V38">
+        <v>3.21</v>
+      </c>
+      <c r="W38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39">
+        <v>42</v>
+      </c>
+      <c r="C39" s="106">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>40.337499999999999</v>
+      </c>
+      <c r="E39">
+        <v>41.16</v>
+      </c>
+      <c r="F39">
+        <v>41.924999999999997</v>
+      </c>
+      <c r="G39">
+        <v>39.25</v>
+      </c>
+      <c r="H39">
+        <v>42.9</v>
+      </c>
+      <c r="I39">
+        <v>41.19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="108">
+        <v>-0.13880000000000001</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" s="72">
+        <v>-0.17549999999999999</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="P39" s="109">
+        <v>26.19</v>
+      </c>
+      <c r="Q39">
+        <v>41.875</v>
+      </c>
+      <c r="R39">
+        <v>43.08</v>
+      </c>
+      <c r="S39">
+        <v>44.052500000000002</v>
+      </c>
+      <c r="T39" t="s">
+        <v>66</v>
+      </c>
+      <c r="U39">
+        <v>43.78</v>
+      </c>
+      <c r="V39">
+        <v>46.24</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40">
+        <v>4.82</v>
+      </c>
+      <c r="C40" s="22">
+        <v>92.86</v>
+      </c>
+      <c r="D40">
         <v>4.6050000000000004</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>4.6849999999999996</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>4.7050000000000001</v>
       </c>
-      <c r="G36">
+      <c r="G40">
         <v>4.3</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>4.8899999999999997</v>
       </c>
-      <c r="I36">
+      <c r="I40">
         <v>4.6399999999999997</v>
       </c>
-      <c r="J36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="5">
         <v>3.04E-2</v>
       </c>
-      <c r="L36" s="43">
+      <c r="L40" s="46">
         <v>0.02</v>
       </c>
-      <c r="M36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="100">
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="110">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="O36" s="75">
+      <c r="O40" s="87">
         <v>0.08</v>
       </c>
-      <c r="P36" s="101">
+      <c r="P40" s="111">
         <v>41.67</v>
       </c>
-      <c r="Q36">
+      <c r="Q40">
         <v>4.7</v>
       </c>
-      <c r="R36">
+      <c r="R40">
         <v>4.875</v>
       </c>
-      <c r="S36">
+      <c r="S40">
         <v>5.0599999999999996</v>
       </c>
-      <c r="T36" t="s">
-        <v>62</v>
-      </c>
-      <c r="U36">
+      <c r="T40" t="s">
+        <v>66</v>
+      </c>
+      <c r="U40">
         <v>4.74</v>
       </c>
-      <c r="V36">
+      <c r="V40">
         <v>4.99</v>
       </c>
-      <c r="W36" t="s">
-        <v>44</v>
+      <c r="W40" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/02-09-2023.xlsx
+++ b/02-09-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,52 +102,52 @@
     <t>Go Up</t>
   </si>
   <si>
+    <t>SKPC</t>
+  </si>
+  <si>
+    <t>Going Up</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Go Down</t>
+  </si>
+  <si>
+    <t>OLFI</t>
+  </si>
+  <si>
+    <t>COMI</t>
+  </si>
+  <si>
+    <t>EFID</t>
+  </si>
+  <si>
+    <t>ESRS</t>
+  </si>
+  <si>
+    <t>ORHD</t>
+  </si>
+  <si>
+    <t>ORWE</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>Going Down</t>
+  </si>
+  <si>
+    <t>QNBA</t>
+  </si>
+  <si>
     <t>EGCH</t>
   </si>
   <si>
-    <t>SKPC</t>
-  </si>
-  <si>
-    <t>Going Up</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Go Down</t>
-  </si>
-  <si>
-    <t>OLFI</t>
-  </si>
-  <si>
-    <t>COMI</t>
-  </si>
-  <si>
-    <t>EFID</t>
-  </si>
-  <si>
-    <t>ESRS</t>
+    <t>HELI</t>
   </si>
   <si>
     <t>Stand Still</t>
-  </si>
-  <si>
-    <t>ORHD</t>
-  </si>
-  <si>
-    <t>ORWE</t>
-  </si>
-  <si>
-    <t>ALCN</t>
-  </si>
-  <si>
-    <t>Going Down</t>
-  </si>
-  <si>
-    <t>QNBA</t>
-  </si>
-  <si>
-    <t>HELI</t>
   </si>
   <si>
     <t>ADIB</t>
@@ -279,41 +279,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA50026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF57245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAF0926"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE95538"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBE982"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFDBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDAF62"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA50026"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF57245"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAF0926"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE95538"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCBE982"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBFDBA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDC776"/>
       </patternFill>
     </fill>
@@ -394,46 +394,46 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFEE28F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF8B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEDC88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED07E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88C51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF633F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDBB6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF7844E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEE28F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF8B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEDC88"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED07E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF88C51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEF633F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDBB6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF47044"/>
       </patternFill>
     </fill>
@@ -559,252 +559,252 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDB567"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFDBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEEA9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED481"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB768"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEEFA3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDBF6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEFFBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFED884"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFEC877"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF99355"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB163"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE402E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC171"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC372"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDBD6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88CE87"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF8E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AC77B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5DB96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FA95C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEECC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0F3DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAE3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEDEA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4EB264"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F6E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2FAEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7EFD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2AA054"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCA2427"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA70226"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF67C4A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69BE63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70C164"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDE379"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45AD5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF148E4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5DB961"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF1A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1E57B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCF08F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF39A758"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB10B26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD83128"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE54E35"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF6B0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEE18D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDC171"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD22B27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEE08B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDAD60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEEB9D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEE491"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCA85E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFBB8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDC372"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA9B58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDB567"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF99355"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDB768"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA9857"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCA55D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7E9C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDF8E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF73C476"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF65BD6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0EDCA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1E0AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3DA65A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F6E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81CA81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2FAEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F0D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF51B35E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC82227"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA70226"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDE402E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF75C465"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA5739"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9E176"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3FAA59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF36B42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0D8044"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDA362A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45AD5B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDE379"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEFFBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F397"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF219C52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB10B26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD62F27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEC5C3B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8ECF67"/>
+        <fgColor rgb="FFA5D86A"/>
       </patternFill>
     </fill>
     <fill>
@@ -814,12 +814,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF63BC62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9E881"/>
+        <fgColor rgb="FF7AC665"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFEB85"/>
       </patternFill>
     </fill>
   </fills>
@@ -858,112 +858,112 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1411,16 +1411,16 @@
         <v>24</v>
       </c>
       <c r="N2" s="5">
-        <v>-1.6400000000000001E-2</v>
+        <v>-1.66E-2</v>
       </c>
       <c r="O2" s="6">
         <v>0.15</v>
       </c>
       <c r="P2" s="7">
-        <v>16.670000000000002</v>
+        <v>17.5</v>
       </c>
       <c r="Q2">
-        <v>2.0529999999999999</v>
+        <v>2.0474999999999999</v>
       </c>
       <c r="R2">
         <v>2.27</v>
@@ -1432,10 +1432,10 @@
         <v>25</v>
       </c>
       <c r="U2">
-        <v>2.2599999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="V2">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="W2" t="s">
         <v>26</v>
@@ -1446,141 +1446,141 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>6.78</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C3" s="8">
-        <v>71.430000000000007</v>
+        <v>94.64</v>
       </c>
       <c r="D3">
-        <v>6.4924999999999997</v>
+        <v>14.97</v>
       </c>
       <c r="E3">
-        <v>6.6</v>
+        <v>15.7</v>
       </c>
       <c r="F3">
-        <v>6.7975000000000003</v>
+        <v>16.227499999999999</v>
       </c>
       <c r="G3">
-        <v>6.14</v>
+        <v>14.07</v>
       </c>
       <c r="H3">
-        <v>7.04</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I3">
-        <v>6.59</v>
+        <v>15.81</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" s="9">
-        <v>-3.2099999999999997E-2</v>
-      </c>
-      <c r="L3" s="4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="11">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="O3" s="12">
         <v>0.05</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="5">
-        <v>-1.6500000000000001E-2</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="11">
-        <v>23.81</v>
+      <c r="P3" s="8">
+        <v>98.12</v>
       </c>
       <c r="Q3">
-        <v>6.81</v>
+        <v>15.67</v>
       </c>
       <c r="R3">
-        <v>7.27</v>
+        <v>16.04</v>
       </c>
       <c r="S3">
-        <v>7.4824999999999999</v>
+        <v>16.434999999999999</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U3">
-        <v>6.9</v>
+        <v>15.11</v>
       </c>
       <c r="V3">
-        <v>7.31</v>
+        <v>15.99</v>
       </c>
       <c r="W3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>10.34</v>
+      </c>
+      <c r="C4" s="13">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="D4">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="E4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F4">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H4">
+        <v>11.52</v>
+      </c>
+      <c r="I4">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C4" s="12">
-        <v>94.64</v>
-      </c>
-      <c r="D4">
-        <v>14.97</v>
-      </c>
-      <c r="E4">
-        <v>15.7</v>
-      </c>
-      <c r="F4">
-        <v>16.227499999999999</v>
-      </c>
-      <c r="G4">
-        <v>14.07</v>
-      </c>
-      <c r="H4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I4">
-        <v>15.81</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" s="11">
+        <v>0.2404</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="P4" s="15">
+        <v>91.25</v>
+      </c>
+      <c r="Q4">
+        <v>8.375</v>
+      </c>
+      <c r="R4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S4">
+        <v>9.7099999999999991</v>
+      </c>
+      <c r="T4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="13">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0.08</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="15">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="P4" s="12">
-        <v>98.21</v>
-      </c>
-      <c r="Q4">
-        <v>15.637499999999999</v>
-      </c>
-      <c r="R4">
-        <v>15.994999999999999</v>
-      </c>
-      <c r="S4">
-        <v>16.414999999999999</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4">
+        <v>7.75</v>
+      </c>
+      <c r="V4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="W4" t="s">
         <v>30</v>
-      </c>
-      <c r="U4">
-        <v>14.82</v>
-      </c>
-      <c r="V4">
-        <v>15.76</v>
-      </c>
-      <c r="W4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1588,70 +1588,70 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>10.34</v>
-      </c>
-      <c r="C5" s="17">
-        <v>78.569999999999993</v>
+        <v>58.99</v>
+      </c>
+      <c r="C5" s="16">
+        <v>92.86</v>
       </c>
       <c r="D5">
-        <v>9.4700000000000006</v>
+        <v>50.905000000000001</v>
       </c>
       <c r="E5">
-        <v>9.6999999999999993</v>
+        <v>52.540000000000013</v>
       </c>
       <c r="F5">
-        <v>10.220000000000001</v>
+        <v>54.66</v>
       </c>
       <c r="G5">
-        <v>8.6300000000000008</v>
+        <v>48.6</v>
       </c>
       <c r="H5">
-        <v>11.52</v>
+        <v>59</v>
       </c>
       <c r="I5">
-        <v>9.8699999999999992</v>
+        <v>53.42</v>
       </c>
       <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1.1808000000000001</v>
+      </c>
+      <c r="L5" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="P5" s="20">
+        <v>97.5</v>
+      </c>
+      <c r="Q5">
+        <v>44.494999999999997</v>
+      </c>
+      <c r="R5">
+        <v>49.51</v>
+      </c>
+      <c r="S5">
+        <v>52.5</v>
+      </c>
+      <c r="T5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="18">
-        <v>0.2404</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.08</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0.12889999999999999</v>
-      </c>
-      <c r="O5" s="20">
-        <v>0.17</v>
-      </c>
-      <c r="P5" s="21">
-        <v>91.67</v>
-      </c>
-      <c r="Q5">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="R5">
-        <v>9.11</v>
-      </c>
-      <c r="S5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5">
+        <v>41.67</v>
+      </c>
+      <c r="V5">
+        <v>43.2</v>
+      </c>
+      <c r="W5" t="s">
         <v>30</v>
-      </c>
-      <c r="U5">
-        <v>7.65</v>
-      </c>
-      <c r="V5">
-        <v>8.01</v>
-      </c>
-      <c r="W5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1659,70 +1659,70 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>58.99</v>
-      </c>
-      <c r="C6" s="22">
+        <v>17.28</v>
+      </c>
+      <c r="C6" s="16">
         <v>92.86</v>
       </c>
       <c r="D6">
-        <v>50.905000000000001</v>
+        <v>15.807499999999999</v>
       </c>
       <c r="E6">
-        <v>52.540000000000013</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="F6">
-        <v>54.66</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="G6">
-        <v>48.6</v>
+        <v>14.7</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>17.5</v>
       </c>
       <c r="I6">
-        <v>53.42</v>
+        <v>16.62</v>
       </c>
       <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L6" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0.1875</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="20">
+        <v>97.5</v>
+      </c>
+      <c r="Q6">
+        <v>13.4</v>
+      </c>
+      <c r="R6">
+        <v>14.5</v>
+      </c>
+      <c r="S6">
+        <v>16.04</v>
+      </c>
+      <c r="T6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="23">
-        <v>1.1808000000000001</v>
-      </c>
-      <c r="L6" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="23">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="O6" s="25">
-        <v>0.18</v>
-      </c>
-      <c r="P6" s="26">
-        <v>97.62</v>
-      </c>
-      <c r="Q6">
-        <v>44.36</v>
-      </c>
-      <c r="R6">
-        <v>49.1</v>
-      </c>
-      <c r="S6">
-        <v>52.275000000000013</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6">
+        <v>13.08</v>
+      </c>
+      <c r="V6">
+        <v>13.61</v>
+      </c>
+      <c r="W6" t="s">
         <v>30</v>
-      </c>
-      <c r="U6">
-        <v>41.7</v>
-      </c>
-      <c r="V6">
-        <v>43.92</v>
-      </c>
-      <c r="W6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1730,70 +1730,70 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>17.28</v>
-      </c>
-      <c r="C7" s="22">
-        <v>92.86</v>
+        <v>25.49</v>
+      </c>
+      <c r="C7" s="24">
+        <v>82.14</v>
       </c>
       <c r="D7">
-        <v>15.807499999999999</v>
+        <v>23.274999999999999</v>
       </c>
       <c r="E7">
-        <v>16.649999999999999</v>
+        <v>23.984999999999999</v>
       </c>
       <c r="F7">
-        <v>16.989999999999998</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>14.7</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>17.5</v>
+        <v>25.7</v>
       </c>
       <c r="I7">
-        <v>16.62</v>
+        <v>24.14</v>
       </c>
       <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.2175</v>
+      </c>
+      <c r="L7" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="26">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="P7" s="28">
+        <v>87.5</v>
+      </c>
+      <c r="Q7">
+        <v>24.227499999999999</v>
+      </c>
+      <c r="R7">
+        <v>24.574999999999999</v>
+      </c>
+      <c r="S7">
+        <v>25</v>
+      </c>
+      <c r="T7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="27">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="L7" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="28">
-        <v>0.17960000000000001</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="P7" s="26">
-        <v>97.62</v>
-      </c>
-      <c r="Q7">
-        <v>13.4</v>
-      </c>
-      <c r="R7">
-        <v>14.145</v>
-      </c>
-      <c r="S7">
-        <v>15.422499999999999</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7">
+        <v>24.27</v>
+      </c>
+      <c r="V7">
+        <v>25.06</v>
+      </c>
+      <c r="W7" t="s">
         <v>30</v>
-      </c>
-      <c r="U7">
-        <v>13.08</v>
-      </c>
-      <c r="V7">
-        <v>13.78</v>
-      </c>
-      <c r="W7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1801,212 +1801,212 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>25.49</v>
+        <v>9.14</v>
       </c>
       <c r="C8" s="29">
-        <v>82.14</v>
+        <v>46.43</v>
       </c>
       <c r="D8">
-        <v>23.274999999999999</v>
+        <v>8.8624999999999989</v>
       </c>
       <c r="E8">
-        <v>23.984999999999999</v>
+        <v>9.1649999999999991</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>9.4924999999999997</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>7.65</v>
       </c>
       <c r="H8">
-        <v>25.7</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>24.14</v>
+        <v>9.08</v>
       </c>
       <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0.1762</v>
+      </c>
+      <c r="L8" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="13">
+        <v>78.75</v>
+      </c>
+      <c r="Q8">
+        <v>6.9375</v>
+      </c>
+      <c r="R8">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="S8">
+        <v>9.0525000000000002</v>
+      </c>
+      <c r="T8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="30">
-        <v>0.2175</v>
-      </c>
-      <c r="L8" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="31">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="O8" s="32">
-        <v>0.03</v>
-      </c>
-      <c r="P8" s="33">
-        <v>86.9</v>
-      </c>
-      <c r="Q8">
-        <v>24.212499999999999</v>
-      </c>
-      <c r="R8">
-        <v>24.574999999999999</v>
-      </c>
-      <c r="S8">
-        <v>25</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8">
+        <v>6.77</v>
+      </c>
+      <c r="V8">
+        <v>6.99</v>
+      </c>
+      <c r="W8" t="s">
         <v>30</v>
-      </c>
-      <c r="U8">
-        <v>24.27</v>
-      </c>
-      <c r="V8">
-        <v>25.62</v>
-      </c>
-      <c r="W8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>9.14</v>
-      </c>
-      <c r="C9" s="34">
-        <v>46.43</v>
+        <v>11.19</v>
+      </c>
+      <c r="C9" s="32">
+        <v>55.36</v>
       </c>
       <c r="D9">
-        <v>8.8624999999999989</v>
+        <v>10.565</v>
       </c>
       <c r="E9">
-        <v>9.1649999999999991</v>
+        <v>10.955</v>
       </c>
       <c r="F9">
-        <v>9.4924999999999997</v>
+        <v>11.3475</v>
       </c>
       <c r="G9">
-        <v>7.65</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>11.77</v>
       </c>
       <c r="I9">
-        <v>9.08</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="33">
+        <v>-1.17E-2</v>
+      </c>
+      <c r="L9" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="34">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="O9" s="35">
+        <v>0.09</v>
+      </c>
+      <c r="P9" s="5">
+        <v>69.38</v>
+      </c>
+      <c r="Q9">
+        <v>10.317500000000001</v>
+      </c>
+      <c r="R9">
+        <v>10.595000000000001</v>
+      </c>
+      <c r="S9">
+        <v>11.2475</v>
+      </c>
+      <c r="T9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="35">
-        <v>0.1762</v>
-      </c>
-      <c r="L9" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="36">
-        <v>0.11169999999999999</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0.31</v>
-      </c>
-      <c r="P9" s="37">
-        <v>79.760000000000005</v>
-      </c>
-      <c r="Q9">
-        <v>6.9</v>
-      </c>
-      <c r="R9">
-        <v>7.6750000000000007</v>
-      </c>
-      <c r="S9">
-        <v>9.0425000000000004</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9">
+        <v>10.24</v>
+      </c>
+      <c r="V9">
+        <v>10.65</v>
+      </c>
+      <c r="W9" t="s">
         <v>30</v>
-      </c>
-      <c r="U9">
-        <v>6.78</v>
-      </c>
-      <c r="V9">
-        <v>7.09</v>
-      </c>
-      <c r="W9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>17.13</v>
+      </c>
+      <c r="C10" s="29">
+        <v>46.43</v>
+      </c>
+      <c r="D10">
+        <v>16.7</v>
+      </c>
+      <c r="E10">
+        <v>17.155000000000001</v>
+      </c>
+      <c r="F10">
+        <v>17.822500000000002</v>
+      </c>
+      <c r="G10">
+        <v>15.54</v>
+      </c>
+      <c r="H10">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="I10">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="B10">
-        <v>11.19</v>
-      </c>
-      <c r="C10" s="38">
-        <v>55.36</v>
-      </c>
-      <c r="D10">
-        <v>10.565</v>
-      </c>
-      <c r="E10">
-        <v>10.955</v>
-      </c>
-      <c r="F10">
-        <v>11.3475</v>
-      </c>
-      <c r="G10">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="H10">
-        <v>11.77</v>
-      </c>
-      <c r="I10">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="39">
-        <v>-1.17E-2</v>
-      </c>
-      <c r="L10" s="24">
+      <c r="K10" s="36">
+        <v>-0.11210000000000001</v>
+      </c>
+      <c r="L10" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="40">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="O10" s="41">
-        <v>0.09</v>
-      </c>
-      <c r="P10" s="8">
-        <v>70.83</v>
+        <v>38</v>
+      </c>
+      <c r="N10" s="37">
+        <v>-0.2225</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="P10" s="7">
+        <v>17.5</v>
       </c>
       <c r="Q10">
-        <v>10.307499999999999</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="R10">
-        <v>10.58</v>
+        <v>19.14</v>
       </c>
       <c r="S10">
-        <v>11.2225</v>
+        <v>20.672499999999999</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U10">
-        <v>10.130000000000001</v>
+        <v>20.69</v>
       </c>
       <c r="V10">
-        <v>10.75</v>
+        <v>21.91</v>
       </c>
       <c r="W10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2014,151 +2014,151 @@
         <v>39</v>
       </c>
       <c r="B11">
-        <v>17.13</v>
-      </c>
-      <c r="C11" s="34">
-        <v>46.43</v>
+        <v>20.59</v>
+      </c>
+      <c r="C11" s="24">
+        <v>82.14</v>
       </c>
       <c r="D11">
-        <v>16.7</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>17.155000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="F11">
-        <v>17.822500000000002</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="G11">
-        <v>15.54</v>
+        <v>18.5</v>
       </c>
       <c r="H11">
-        <v>18.489999999999998</v>
+        <v>20.88</v>
       </c>
       <c r="I11">
-        <v>17.239999999999998</v>
+        <v>19.57</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="42">
-        <v>-0.11210000000000001</v>
-      </c>
-      <c r="L11" s="24">
+        <v>28</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.1108</v>
+      </c>
+      <c r="L11" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="25">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="O11" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="43">
-        <v>-0.19850000000000001</v>
-      </c>
-      <c r="O11" s="25">
-        <v>0.18</v>
-      </c>
-      <c r="P11" s="7">
-        <v>16.670000000000002</v>
+      <c r="P11" s="41">
+        <v>77.5</v>
       </c>
       <c r="Q11">
-        <v>17.642499999999998</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="R11">
-        <v>19.405000000000001</v>
+        <v>20.13</v>
       </c>
       <c r="S11">
-        <v>20.8125</v>
+        <v>20.524999999999999</v>
       </c>
       <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11">
+        <v>18.77</v>
+      </c>
+      <c r="V11">
+        <v>19.55</v>
+      </c>
+      <c r="W11" t="s">
         <v>30</v>
-      </c>
-      <c r="U11">
-        <v>20.69</v>
-      </c>
-      <c r="V11">
-        <v>21.91</v>
-      </c>
-      <c r="W11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>20.59</v>
-      </c>
-      <c r="C12" s="29">
-        <v>82.14</v>
+        <v>6.78</v>
+      </c>
+      <c r="C12" s="42">
+        <v>71.430000000000007</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>6.4924999999999997</v>
       </c>
       <c r="E12">
-        <v>19.5</v>
+        <v>6.6</v>
       </c>
       <c r="F12">
-        <v>20.170000000000002</v>
+        <v>6.7975000000000003</v>
       </c>
       <c r="G12">
-        <v>18.5</v>
+        <v>6.14</v>
       </c>
       <c r="H12">
-        <v>20.88</v>
+        <v>7.04</v>
       </c>
       <c r="I12">
-        <v>19.57</v>
+        <v>6.59</v>
       </c>
       <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="43">
+        <v>-3.2099999999999997E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="5">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="O12" s="44">
+        <v>0.11</v>
+      </c>
+      <c r="P12" s="45">
+        <v>25</v>
+      </c>
+      <c r="Q12">
+        <v>6.7725</v>
+      </c>
+      <c r="R12">
+        <v>7.2949999999999999</v>
+      </c>
+      <c r="S12">
+        <v>7.49</v>
+      </c>
+      <c r="T12" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="31">
-        <v>0.1108</v>
-      </c>
-      <c r="L12" s="44">
-        <v>0.06</v>
-      </c>
-      <c r="M12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="45">
-        <v>0.1081</v>
-      </c>
-      <c r="O12" s="46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P12" s="47">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="Q12">
-        <v>19.105</v>
-      </c>
-      <c r="R12">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="S12">
-        <v>20.512499999999999</v>
-      </c>
-      <c r="T12" t="s">
-        <v>30</v>
-      </c>
       <c r="U12">
-        <v>18.53</v>
+        <v>6.85</v>
       </c>
       <c r="V12">
-        <v>19.489999999999998</v>
+        <v>7.4</v>
       </c>
       <c r="W12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>9.76</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>67.86</v>
       </c>
       <c r="D13">
@@ -2182,7 +2182,7 @@
       <c r="J13" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="47">
         <v>-8.2100000000000006E-2</v>
       </c>
       <c r="L13" s="4">
@@ -2191,35 +2191,35 @@
       <c r="M13" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="49">
-        <v>7.6E-3</v>
-      </c>
-      <c r="O13" s="20">
-        <v>0.17</v>
-      </c>
-      <c r="P13" s="50">
-        <v>28.57</v>
+      <c r="N13" s="48">
+        <v>-1.34E-2</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="P13" s="49">
+        <v>26.25</v>
       </c>
       <c r="Q13">
-        <v>9.57</v>
+        <v>9.65</v>
       </c>
       <c r="R13">
-        <v>10.43</v>
+        <v>10.465</v>
       </c>
       <c r="S13">
         <v>11.2</v>
       </c>
       <c r="T13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U13">
-        <v>8.9499999999999993</v>
+        <v>9.18</v>
       </c>
       <c r="V13">
-        <v>9.57</v>
+        <v>9.99</v>
       </c>
       <c r="W13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,7 @@
       <c r="B14">
         <v>22.3</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="42">
         <v>71.430000000000007</v>
       </c>
       <c r="D14">
@@ -2251,46 +2251,46 @@
         <v>21.71</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="51">
+        <v>28</v>
+      </c>
+      <c r="K14" s="50">
         <v>0.1017</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="51">
         <v>0.04</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N14" s="52">
-        <v>0.17510000000000001</v>
+        <v>0.17910000000000001</v>
       </c>
       <c r="O14" s="53">
         <v>0.12</v>
       </c>
       <c r="P14" s="54">
-        <v>83.33</v>
+        <v>82.5</v>
       </c>
       <c r="Q14">
-        <v>19.5</v>
+        <v>19.602499999999999</v>
       </c>
       <c r="R14">
-        <v>20.965</v>
+        <v>21.11</v>
       </c>
       <c r="S14">
-        <v>21.8675</v>
+        <v>21.914999999999999</v>
       </c>
       <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="V14">
+        <v>19.84</v>
+      </c>
+      <c r="W14" t="s">
         <v>30</v>
-      </c>
-      <c r="U14">
-        <v>18.93</v>
-      </c>
-      <c r="V14">
-        <v>20.09</v>
-      </c>
-      <c r="W14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2327,41 +2327,41 @@
       <c r="K15" s="56">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="51">
         <v>0.04</v>
       </c>
       <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="57">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="O15" s="44">
+        <v>0.11</v>
+      </c>
+      <c r="P15" s="15">
+        <v>91.25</v>
+      </c>
+      <c r="Q15">
+        <v>24.5</v>
+      </c>
+      <c r="R15">
+        <v>25.5</v>
+      </c>
+      <c r="S15">
+        <v>27.107500000000002</v>
+      </c>
+      <c r="T15" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="57">
-        <v>0.1449</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P15" s="21">
-        <v>91.67</v>
-      </c>
-      <c r="Q15">
-        <v>24.49</v>
-      </c>
-      <c r="R15">
-        <v>25.39</v>
-      </c>
-      <c r="S15">
-        <v>27.015000000000001</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="U15">
+        <v>24.23</v>
+      </c>
+      <c r="V15">
+        <v>24.93</v>
+      </c>
+      <c r="W15" t="s">
         <v>30</v>
-      </c>
-      <c r="U15">
-        <v>24.07</v>
-      </c>
-      <c r="V15">
-        <v>25.08</v>
-      </c>
-      <c r="W15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2398,41 +2398,41 @@
       <c r="K16" s="59">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="51">
         <v>0.04</v>
       </c>
       <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="60">
+        <v>0.1361</v>
+      </c>
+      <c r="O16" s="61">
+        <v>0.19</v>
+      </c>
+      <c r="P16" s="41">
+        <v>77.5</v>
+      </c>
+      <c r="Q16">
+        <v>8.8224999999999998</v>
+      </c>
+      <c r="R16">
+        <v>9.7650000000000006</v>
+      </c>
+      <c r="S16">
+        <v>10.484999999999999</v>
+      </c>
+      <c r="T16" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="60">
-        <v>0.12139999999999999</v>
-      </c>
-      <c r="O16" s="61">
-        <v>0.21</v>
-      </c>
-      <c r="P16" s="47">
-        <v>78.569999999999993</v>
-      </c>
-      <c r="Q16">
-        <v>8.6425000000000001</v>
-      </c>
-      <c r="R16">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="S16">
-        <v>10.4575</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="U16">
+        <v>7.95</v>
+      </c>
+      <c r="V16">
+        <v>8.42</v>
+      </c>
+      <c r="W16" t="s">
         <v>30</v>
-      </c>
-      <c r="U16">
-        <v>7.83</v>
-      </c>
-      <c r="V16">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="W16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
       <c r="B17">
         <v>5.4</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="9">
         <v>60.71</v>
       </c>
       <c r="D17">
@@ -2469,20 +2469,20 @@
       <c r="K17" s="62">
         <v>-5.4000000000000003E-3</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="51">
         <v>0.04</v>
       </c>
       <c r="M17" t="s">
         <v>24</v>
       </c>
       <c r="N17" s="63">
-        <v>-2.9999999999999997E-4</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="O17" s="64">
         <v>0.06</v>
       </c>
       <c r="P17" s="65">
-        <v>38.69</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="Q17">
         <v>5.3</v>
@@ -2494,16 +2494,16 @@
         <v>5.6349999999999998</v>
       </c>
       <c r="T17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U17">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="V17">
-        <v>5.6</v>
+        <v>5.44</v>
       </c>
       <c r="W17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2540,20 +2540,20 @@
       <c r="K18" s="67">
         <v>-9.1200000000000003E-2</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="51">
         <v>0.04</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="63">
-        <v>2.0999999999999999E-3</v>
+      <c r="N18" s="38">
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="O18" s="64">
         <v>0.06</v>
       </c>
       <c r="P18" s="68">
-        <v>22.02</v>
+        <v>20.62</v>
       </c>
       <c r="Q18">
         <v>15.24</v>
@@ -2562,19 +2562,19 @@
         <v>15.6</v>
       </c>
       <c r="S18">
-        <v>16.112500000000001</v>
+        <v>16.157499999999999</v>
       </c>
       <c r="T18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U18">
         <v>15.05</v>
       </c>
       <c r="V18">
-        <v>15.74</v>
+        <v>15.84</v>
       </c>
       <c r="W18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
       <c r="B19">
         <v>159.33000000000001</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="16">
         <v>92.86</v>
       </c>
       <c r="D19">
@@ -2606,7 +2606,7 @@
         <v>150.22</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="69">
         <v>0.625</v>
@@ -2615,37 +2615,37 @@
         <v>0.03</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="12">
-        <v>-0.28939999999999999</v>
-      </c>
-      <c r="O19" s="16">
+        <v>38</v>
+      </c>
+      <c r="N19" s="8">
+        <v>-0.38219999999999998</v>
+      </c>
+      <c r="O19" s="12">
         <v>0.05</v>
       </c>
-      <c r="P19" s="71">
-        <v>80.95</v>
+      <c r="P19" s="54">
+        <v>82.5</v>
       </c>
       <c r="Q19">
-        <v>150.5</v>
+        <v>150.17250000000001</v>
       </c>
       <c r="R19">
-        <v>153.5</v>
+        <v>153.17500000000001</v>
       </c>
       <c r="S19">
         <v>157.5</v>
       </c>
       <c r="T19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U19">
-        <v>157.78</v>
+        <v>158.22999999999999</v>
       </c>
       <c r="V19">
-        <v>164.74</v>
+        <v>163.33000000000001</v>
       </c>
       <c r="W19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
       <c r="B20">
         <v>21.6</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="28">
         <v>85.71</v>
       </c>
       <c r="D20">
@@ -2677,46 +2677,46 @@
         <v>20.63</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="73">
+        <v>28</v>
+      </c>
+      <c r="K20" s="71">
         <v>0.1396</v>
       </c>
       <c r="L20" s="70">
         <v>0.03</v>
       </c>
       <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="72">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="P20" s="47">
+        <v>79.38</v>
+      </c>
+      <c r="Q20">
+        <v>18.677499999999998</v>
+      </c>
+      <c r="R20">
+        <v>20.5</v>
+      </c>
+      <c r="S20">
+        <v>21.432500000000001</v>
+      </c>
+      <c r="T20" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="74">
-        <v>0.1946</v>
-      </c>
-      <c r="O20" s="75">
-        <v>0.16</v>
-      </c>
-      <c r="P20" s="76">
-        <v>80.36</v>
-      </c>
-      <c r="Q20">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="R20">
-        <v>20.484999999999999</v>
-      </c>
-      <c r="S20">
-        <v>21.395</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="U20">
+        <v>17.82</v>
+      </c>
+      <c r="V20">
+        <v>18.3</v>
+      </c>
+      <c r="W20" t="s">
         <v>30</v>
-      </c>
-      <c r="U20">
-        <v>17.66</v>
-      </c>
-      <c r="V20">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="W20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
       <c r="B21">
         <v>2.63</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="73">
         <v>39.29</v>
       </c>
       <c r="D21">
@@ -2759,32 +2759,32 @@
       <c r="M21" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="78">
-        <v>-7.3000000000000001E-3</v>
-      </c>
-      <c r="O21" s="79">
+      <c r="N21" s="50">
+        <v>-8.2000000000000007E-3</v>
+      </c>
+      <c r="O21" s="74">
         <v>0.04</v>
       </c>
-      <c r="P21" s="80">
-        <v>13.1</v>
+      <c r="P21" s="75">
+        <v>13.75</v>
       </c>
       <c r="Q21">
-        <v>2.67</v>
+        <v>2.6675</v>
       </c>
       <c r="R21">
-        <v>2.7149999999999999</v>
+        <v>2.71</v>
       </c>
       <c r="S21">
         <v>2.7825000000000002</v>
       </c>
       <c r="T21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U21">
         <v>2.75</v>
       </c>
       <c r="V21">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="W21" t="s">
         <v>26</v>
@@ -2797,7 +2797,7 @@
       <c r="B22">
         <v>19.45</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="16">
         <v>92.86</v>
       </c>
       <c r="D22">
@@ -2828,37 +2828,37 @@
         <v>0.03</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="81">
-        <v>5.1999999999999998E-2</v>
+        <v>28</v>
+      </c>
+      <c r="N22" s="76">
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="O22" s="64">
         <v>0.06</v>
       </c>
-      <c r="P22" s="82">
-        <v>88.1</v>
+      <c r="P22" s="28">
+        <v>87.5</v>
       </c>
       <c r="Q22">
-        <v>17.940000000000001</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="R22">
-        <v>18.3</v>
+        <v>18.324999999999999</v>
       </c>
       <c r="S22">
-        <v>18.95</v>
+        <v>18.984999999999999</v>
       </c>
       <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22">
+        <v>17.39</v>
+      </c>
+      <c r="V22">
+        <v>18.32</v>
+      </c>
+      <c r="W22" t="s">
         <v>30</v>
-      </c>
-      <c r="U22">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="V22">
-        <v>18.14</v>
-      </c>
-      <c r="W22" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
       <c r="B23">
         <v>3.74</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="77">
         <v>62.5</v>
       </c>
       <c r="D23">
@@ -2892,7 +2892,7 @@
       <c r="J23" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="33">
         <v>-1.67E-2</v>
       </c>
       <c r="L23" s="70">
@@ -2901,32 +2901,32 @@
       <c r="M23" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="83">
-        <v>-1.84E-2</v>
-      </c>
-      <c r="O23" s="46">
+      <c r="N23" s="5">
+        <v>-1.83E-2</v>
+      </c>
+      <c r="O23" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P23" s="84">
-        <v>22.62</v>
+      <c r="P23" s="78">
+        <v>23.75</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
       </c>
       <c r="R23">
-        <v>3.89</v>
+        <v>3.8849999999999998</v>
       </c>
       <c r="S23">
         <v>4</v>
       </c>
       <c r="T23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U23">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="V23">
-        <v>4.1100000000000003</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W23" t="s">
         <v>26</v>
@@ -2963,7 +2963,7 @@
       <c r="J24" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="85">
+      <c r="K24" s="79">
         <v>-3.8699999999999998E-2</v>
       </c>
       <c r="L24" s="70">
@@ -2972,32 +2972,32 @@
       <c r="M24" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="86">
-        <v>-2.5399999999999999E-2</v>
-      </c>
-      <c r="O24" s="87">
+      <c r="N24" s="42">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="O24" s="80">
         <v>0.08</v>
       </c>
       <c r="P24" s="7">
-        <v>16.670000000000002</v>
+        <v>17.5</v>
       </c>
       <c r="Q24">
-        <v>9.8324999999999996</v>
+        <v>9.84</v>
       </c>
       <c r="R24">
-        <v>10.4</v>
+        <v>10.404999999999999</v>
       </c>
       <c r="S24">
         <v>10.6</v>
       </c>
       <c r="T24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U24">
-        <v>9.98</v>
+        <v>10.15</v>
       </c>
       <c r="V24">
-        <v>10.63</v>
+        <v>10.62</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
@@ -3010,7 +3010,7 @@
       <c r="B25">
         <v>8.9499999999999993</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C25" s="81">
         <v>42.86</v>
       </c>
       <c r="D25">
@@ -3034,7 +3034,7 @@
       <c r="J25" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="89">
+      <c r="K25" s="82">
         <v>-4.3299999999999998E-2</v>
       </c>
       <c r="L25" s="70">
@@ -3043,35 +3043,35 @@
       <c r="M25" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="90">
-        <v>2.35E-2</v>
+      <c r="N25" s="83">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="O25" s="64">
         <v>0.06</v>
       </c>
-      <c r="P25" s="13">
-        <v>58.33</v>
+      <c r="P25" s="84">
+        <v>56.25</v>
       </c>
       <c r="Q25">
-        <v>8.5724999999999998</v>
+        <v>8.5975000000000001</v>
       </c>
       <c r="R25">
-        <v>8.82</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="S25">
-        <v>9.0749999999999993</v>
+        <v>9.1050000000000004</v>
       </c>
       <c r="T25" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25">
+        <v>8.39</v>
+      </c>
+      <c r="V25">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="W25" t="s">
         <v>30</v>
-      </c>
-      <c r="U25">
-        <v>8.35</v>
-      </c>
-      <c r="V25">
-        <v>8.73</v>
-      </c>
-      <c r="W25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
       <c r="B26">
         <v>34.76</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="46">
         <v>67.86</v>
       </c>
       <c r="D26">
@@ -3105,23 +3105,23 @@
       <c r="J26" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="85">
         <v>-6.54E-2</v>
       </c>
       <c r="L26" s="70">
         <v>0.03</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="39">
-        <v>-4.07E-2</v>
-      </c>
-      <c r="O26" s="79">
+        <v>38</v>
+      </c>
+      <c r="N26" s="86">
+        <v>-8.3900000000000002E-2</v>
+      </c>
+      <c r="O26" s="74">
         <v>0.04</v>
       </c>
-      <c r="P26" s="91">
-        <v>39.29</v>
+      <c r="P26" s="87">
+        <v>38.75</v>
       </c>
       <c r="Q26">
         <v>34.380000000000003</v>
@@ -3130,19 +3130,19 @@
         <v>35</v>
       </c>
       <c r="S26">
-        <v>35.652500000000003</v>
+        <v>35.597499999999997</v>
       </c>
       <c r="T26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U26">
-        <v>34.479999999999997</v>
+        <v>35.64</v>
       </c>
       <c r="V26">
-        <v>35.22</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="W26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
       <c r="B27">
         <v>13.9</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="88">
         <v>25</v>
       </c>
       <c r="D27">
@@ -3176,7 +3176,7 @@
       <c r="J27" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="92">
+      <c r="K27" s="89">
         <v>-7.2099999999999997E-2</v>
       </c>
       <c r="L27" s="70">
@@ -3185,35 +3185,35 @@
       <c r="M27" t="s">
         <v>24</v>
       </c>
-      <c r="N27" s="56">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="O27" s="32">
+      <c r="N27" s="63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O27" s="27">
         <v>0.03</v>
       </c>
-      <c r="P27" s="93">
-        <v>52.98</v>
+      <c r="P27" s="32">
+        <v>51.25</v>
       </c>
       <c r="Q27">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
       <c r="R27">
-        <v>13.855</v>
+        <v>13.86</v>
       </c>
       <c r="S27">
-        <v>14.102499999999999</v>
+        <v>14.12</v>
       </c>
       <c r="T27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U27">
-        <v>13.33</v>
+        <v>13.57</v>
       </c>
       <c r="V27">
-        <v>14.02</v>
+        <v>14.2</v>
       </c>
       <c r="W27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
       <c r="B28">
         <v>6.3</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="26">
         <v>66.069999999999993</v>
       </c>
       <c r="D28">
@@ -3247,44 +3247,44 @@
       <c r="J28" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="33">
         <v>-1.29E-2</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="90">
         <v>0.02</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="90">
-        <v>2.41E-2</v>
+      <c r="N28" s="83">
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="O28" s="64">
         <v>0.06</v>
       </c>
-      <c r="P28" s="95">
-        <v>46.43</v>
+      <c r="P28" s="91">
+        <v>43.75</v>
       </c>
       <c r="Q28">
-        <v>6.1624999999999996</v>
+        <v>6.1875</v>
       </c>
       <c r="R28">
-        <v>6.3049999999999997</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="S28">
-        <v>6.5625</v>
+        <v>6.5775000000000006</v>
       </c>
       <c r="T28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28">
+        <v>5.81</v>
+      </c>
+      <c r="V28">
+        <v>6.17</v>
+      </c>
+      <c r="W28" t="s">
         <v>30</v>
-      </c>
-      <c r="U28">
-        <v>5.77</v>
-      </c>
-      <c r="V28">
-        <v>6.12</v>
-      </c>
-      <c r="W28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -3316,43 +3316,43 @@
         <v>21.85</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="71">
+        <v>38</v>
+      </c>
+      <c r="K29" s="92">
         <v>-0.1037</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="90">
         <v>0.02</v>
       </c>
       <c r="M29" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="96">
-        <v>-2.9700000000000001E-2</v>
-      </c>
-      <c r="O29" s="79">
-        <v>0.04</v>
-      </c>
-      <c r="P29" s="97">
-        <v>18.45</v>
+      <c r="N29" s="93">
+        <v>-2.93E-2</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="P29" s="94">
+        <v>19.38</v>
       </c>
       <c r="Q29">
-        <v>22.247499999999999</v>
+        <v>22.237500000000001</v>
       </c>
       <c r="R29">
-        <v>22.76</v>
+        <v>22.84</v>
       </c>
       <c r="S29">
-        <v>23.225000000000001</v>
+        <v>23.324999999999999</v>
       </c>
       <c r="T29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U29">
-        <v>22.27</v>
+        <v>22.47</v>
       </c>
       <c r="V29">
-        <v>23.37</v>
+        <v>23.62</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
@@ -3365,7 +3365,7 @@
       <c r="B30">
         <v>97.97</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="17">
         <v>17.86</v>
       </c>
       <c r="D30">
@@ -3387,46 +3387,46 @@
         <v>99.27</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="12">
+        <v>38</v>
+      </c>
+      <c r="K30" s="8">
         <v>-0.4083</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="90">
         <v>0.02</v>
       </c>
       <c r="M30" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="17">
-        <v>-8.14E-2</v>
-      </c>
-      <c r="O30" s="79">
+        <v>38</v>
+      </c>
+      <c r="N30" s="95">
+        <v>-0.2339</v>
+      </c>
+      <c r="O30" s="74">
         <v>0.04</v>
       </c>
-      <c r="P30" s="23">
-        <v>8.33</v>
+      <c r="P30" s="17">
+        <v>6.25</v>
       </c>
       <c r="Q30">
-        <v>98.95</v>
+        <v>99</v>
       </c>
       <c r="R30">
         <v>100.035</v>
       </c>
       <c r="S30">
-        <v>102.49250000000001</v>
+        <v>102.49</v>
       </c>
       <c r="T30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U30">
-        <v>97.49</v>
+        <v>99.84</v>
       </c>
       <c r="V30">
-        <v>100.22</v>
+        <v>102.14</v>
       </c>
       <c r="W30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -3460,44 +3460,44 @@
       <c r="J31" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="78">
+      <c r="K31" s="96">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="27">
         <v>0.01</v>
       </c>
       <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="O31" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="P31" s="16">
+        <v>96.25</v>
+      </c>
+      <c r="Q31">
+        <v>16.8</v>
+      </c>
+      <c r="R31">
+        <v>17.3</v>
+      </c>
+      <c r="S31">
+        <v>17.8125</v>
+      </c>
+      <c r="T31" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="19">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="O31" s="46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P31" s="22">
-        <v>96.43</v>
-      </c>
-      <c r="Q31">
-        <v>16.7075</v>
-      </c>
-      <c r="R31">
-        <v>17.274999999999999</v>
-      </c>
-      <c r="S31">
-        <v>17.8</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="U31">
+        <v>15.95</v>
+      </c>
+      <c r="V31">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="W31" t="s">
         <v>30</v>
-      </c>
-      <c r="U31">
-        <v>15.13</v>
-      </c>
-      <c r="V31">
-        <v>16.46</v>
-      </c>
-      <c r="W31" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
       <c r="B32">
         <v>7.99</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="8">
         <v>94.64</v>
       </c>
       <c r="D32">
@@ -3534,20 +3534,20 @@
       <c r="K32" s="59">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="51">
         <v>0.04</v>
       </c>
       <c r="M32" t="s">
         <v>24</v>
       </c>
-      <c r="N32" s="98">
-        <v>2.7E-2</v>
-      </c>
-      <c r="O32" s="79">
+      <c r="N32" s="97">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="O32" s="74">
         <v>0.04</v>
       </c>
-      <c r="P32" s="99">
-        <v>95.83</v>
+      <c r="P32" s="98">
+        <v>95.62</v>
       </c>
       <c r="Q32">
         <v>7.45</v>
@@ -3556,19 +3556,19 @@
         <v>7.6</v>
       </c>
       <c r="S32">
-        <v>7.74</v>
+        <v>7.7424999999999997</v>
       </c>
       <c r="T32" t="s">
         <v>62</v>
       </c>
       <c r="U32">
-        <v>7.29</v>
+        <v>7.46</v>
       </c>
       <c r="V32">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="W32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
       <c r="B33">
         <v>5.76</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="28">
         <v>85.71</v>
       </c>
       <c r="D33">
@@ -3602,32 +3602,32 @@
       <c r="J33" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="33">
         <v>-1.21E-2</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="51">
         <v>0.04</v>
       </c>
       <c r="M33" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="90">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="O33" s="87">
+      <c r="N33" s="83">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="O33" s="80">
         <v>0.08</v>
       </c>
-      <c r="P33" s="100">
-        <v>89.29</v>
+      <c r="P33" s="99">
+        <v>88.75</v>
       </c>
       <c r="Q33">
-        <v>5.15</v>
+        <v>5.1724999999999994</v>
       </c>
       <c r="R33">
-        <v>5.375</v>
+        <v>5.4</v>
       </c>
       <c r="S33">
-        <v>5.5575000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="T33" t="s">
         <v>62</v>
@@ -3636,10 +3636,10 @@
         <v>5.01</v>
       </c>
       <c r="V33">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="W33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -3649,7 +3649,7 @@
       <c r="B34">
         <v>6.7</v>
       </c>
-      <c r="C34" s="101">
+      <c r="C34" s="100">
         <v>73.209999999999994</v>
       </c>
       <c r="D34">
@@ -3673,7 +3673,7 @@
       <c r="J34" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="78">
+      <c r="K34" s="96">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="L34" s="70">
@@ -3682,35 +3682,35 @@
       <c r="M34" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="8">
-        <v>1.12E-2</v>
-      </c>
-      <c r="O34" s="79">
+      <c r="N34" s="101">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="O34" s="74">
         <v>0.04</v>
       </c>
       <c r="P34" s="102">
-        <v>82.74</v>
+        <v>84.38</v>
       </c>
       <c r="Q34">
-        <v>6.3975</v>
+        <v>6.4</v>
       </c>
       <c r="R34">
         <v>6.5</v>
       </c>
       <c r="S34">
-        <v>6.665</v>
+        <v>6.66</v>
       </c>
       <c r="T34" t="s">
         <v>62</v>
       </c>
       <c r="U34">
-        <v>6.29</v>
+        <v>6.28</v>
       </c>
       <c r="V34">
-        <v>6.79</v>
+        <v>6.64</v>
       </c>
       <c r="W34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -3720,7 +3720,7 @@
       <c r="B35">
         <v>12.95</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="28">
         <v>85.71</v>
       </c>
       <c r="D35">
@@ -3744,29 +3744,29 @@
       <c r="J35" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="43">
         <v>-3.04E-2</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="39">
         <v>0.06</v>
       </c>
       <c r="M35" t="s">
         <v>24</v>
       </c>
-      <c r="N35" s="103">
-        <v>-2.2499999999999999E-2</v>
+      <c r="N35" s="48">
+        <v>-1.26E-2</v>
       </c>
       <c r="O35" s="64">
         <v>0.06</v>
       </c>
-      <c r="P35" s="28">
-        <v>55.95</v>
+      <c r="P35" s="103">
+        <v>55</v>
       </c>
       <c r="Q35">
-        <v>12.645</v>
+        <v>12.6225</v>
       </c>
       <c r="R35">
-        <v>12.9</v>
+        <v>12.91</v>
       </c>
       <c r="S35">
         <v>13.4025</v>
@@ -3775,13 +3775,13 @@
         <v>66</v>
       </c>
       <c r="U35">
-        <v>13.19</v>
+        <v>12.79</v>
       </c>
       <c r="V35">
-        <v>13.92</v>
+        <v>13.53</v>
       </c>
       <c r="W35" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -3791,7 +3791,7 @@
       <c r="B36">
         <v>5.32</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="16">
         <v>92.86</v>
       </c>
       <c r="D36">
@@ -3815,29 +3815,29 @@
       <c r="J36" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="104">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="51">
         <v>0.04</v>
       </c>
       <c r="M36" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="5">
-        <v>-1.47E-2</v>
-      </c>
-      <c r="O36" s="46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P36" s="65">
-        <v>38.69</v>
+      <c r="N36" s="48">
+        <v>-1.3299999999999999E-2</v>
+      </c>
+      <c r="O36" s="80">
+        <v>0.08</v>
+      </c>
+      <c r="P36" s="29">
+        <v>40.619999999999997</v>
       </c>
       <c r="Q36">
-        <v>5.12</v>
+        <v>5.1174999999999997</v>
       </c>
       <c r="R36">
-        <v>5.39</v>
+        <v>5.3849999999999998</v>
       </c>
       <c r="S36">
         <v>5.5025000000000004</v>
@@ -3846,10 +3846,10 @@
         <v>66</v>
       </c>
       <c r="U36">
-        <v>5.38</v>
+        <v>5.42</v>
       </c>
       <c r="V36">
-        <v>5.63</v>
+        <v>5.59</v>
       </c>
       <c r="W36" t="s">
         <v>26</v>
@@ -3886,29 +3886,29 @@
       <c r="J37" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="86">
+      <c r="K37" s="105">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="51">
         <v>0.04</v>
       </c>
       <c r="M37" t="s">
         <v>24</v>
       </c>
-      <c r="N37" s="5">
-        <v>-1.37E-2</v>
-      </c>
-      <c r="O37" s="70">
-        <v>0.11</v>
-      </c>
-      <c r="P37" s="104">
-        <v>32.14</v>
+      <c r="N37" s="48">
+        <v>-1.34E-2</v>
+      </c>
+      <c r="O37" s="53">
+        <v>0.12</v>
+      </c>
+      <c r="P37" s="106">
+        <v>33.75</v>
       </c>
       <c r="Q37">
-        <v>2.5950000000000002</v>
+        <v>2.58</v>
       </c>
       <c r="R37">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="S37">
         <v>2.8925000000000001</v>
@@ -3920,7 +3920,7 @@
         <v>2.84</v>
       </c>
       <c r="V37">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="W37" t="s">
         <v>26</v>
@@ -3933,7 +3933,7 @@
       <c r="B38">
         <v>3.14</v>
       </c>
-      <c r="C38" s="105">
+      <c r="C38" s="37">
         <v>83.93</v>
       </c>
       <c r="D38">
@@ -3957,44 +3957,44 @@
       <c r="J38" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="106">
+      <c r="K38" s="107">
         <v>-4.5999999999999999E-3</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="51">
         <v>0.04</v>
       </c>
       <c r="M38" t="s">
         <v>24</v>
       </c>
       <c r="N38" s="63">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="O38" s="64">
         <v>0.06</v>
       </c>
-      <c r="P38" s="107">
-        <v>51.79</v>
+      <c r="P38" s="108">
+        <v>50.62</v>
       </c>
       <c r="Q38">
         <v>3.05</v>
       </c>
       <c r="R38">
-        <v>3.1349999999999998</v>
+        <v>3.14</v>
       </c>
       <c r="S38">
-        <v>3.23</v>
+        <v>3.2324999999999999</v>
       </c>
       <c r="T38" t="s">
         <v>66</v>
       </c>
       <c r="U38">
-        <v>3.07</v>
+        <v>3.02</v>
       </c>
       <c r="V38">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="W38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -4004,7 +4004,7 @@
       <c r="B39">
         <v>42</v>
       </c>
-      <c r="C39" s="106">
+      <c r="C39" s="107">
         <v>75</v>
       </c>
       <c r="D39">
@@ -4026,43 +4026,43 @@
         <v>41.19</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="108">
+        <v>38</v>
+      </c>
+      <c r="K39" s="54">
         <v>-0.13880000000000001</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="51">
         <v>0.04</v>
       </c>
       <c r="M39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" s="72">
-        <v>-0.17549999999999999</v>
-      </c>
-      <c r="O39" s="16">
+        <v>38</v>
+      </c>
+      <c r="N39" s="54">
+        <v>-0.18529999999999999</v>
+      </c>
+      <c r="O39" s="12">
         <v>0.05</v>
       </c>
       <c r="P39" s="109">
-        <v>26.19</v>
+        <v>27.5</v>
       </c>
       <c r="Q39">
-        <v>41.875</v>
+        <v>41.792499999999997</v>
       </c>
       <c r="R39">
-        <v>43.08</v>
+        <v>43.04</v>
       </c>
       <c r="S39">
-        <v>44.052500000000002</v>
+        <v>43.912500000000001</v>
       </c>
       <c r="T39" t="s">
         <v>66</v>
       </c>
       <c r="U39">
-        <v>43.78</v>
+        <v>44.26</v>
       </c>
       <c r="V39">
-        <v>46.24</v>
+        <v>45.91</v>
       </c>
       <c r="W39" t="s">
         <v>26</v>
@@ -4075,7 +4075,7 @@
       <c r="B40">
         <v>4.82</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="16">
         <v>92.86</v>
       </c>
       <c r="D40">
@@ -4099,44 +4099,44 @@
       <c r="J40" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="104">
         <v>3.04E-2</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="90">
         <v>0.02</v>
       </c>
       <c r="M40" t="s">
         <v>24</v>
       </c>
       <c r="N40" s="110">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="O40" s="87">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O40" s="80">
         <v>0.08</v>
       </c>
       <c r="P40" s="111">
-        <v>41.67</v>
+        <v>41.25</v>
       </c>
       <c r="Q40">
         <v>4.7</v>
       </c>
       <c r="R40">
-        <v>4.875</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="S40">
-        <v>5.0599999999999996</v>
+        <v>5.0625</v>
       </c>
       <c r="T40" t="s">
         <v>66</v>
       </c>
       <c r="U40">
-        <v>4.74</v>
+        <v>4.58</v>
       </c>
       <c r="V40">
-        <v>4.99</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="W40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
